--- a/RutaCritica/MallaCurricular2018.xlsx
+++ b/RutaCritica/MallaCurricular2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\practica2\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B834C9CC-8F7B-4D69-8404-65FF6C07C3F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F043F70-33AD-44D6-91B1-1BE2F58CED46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="2640" yWindow="2565" windowWidth="18000" windowHeight="9810" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2018" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="290">
   <si>
     <t>CBM1000</t>
   </si>
@@ -902,6 +902,9 @@
   </si>
   <si>
     <t>CIT2102, CIT2200</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1124,7 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Cálculo" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1149,7 +1152,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1447,11 +1450,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A2:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -2056,7 +2059,7 @@
         <v>97</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>145</v>
+        <v>289</v>
       </c>
       <c r="E29" s="25">
         <v>5</v>
@@ -2672,11 +2675,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4014FB4E-F87C-4819-8121-E51678866905}">
   <dimension ref="A2:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="53.5703125" customWidth="1"/>

--- a/RutaCritica/MallaCurricular2018.xlsx
+++ b/RutaCritica/MallaCurricular2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\practica2\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B834C9CC-8F7B-4D69-8404-65FF6C07C3F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BC0E9B-F603-4034-A091-CD1EFE98B21D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2018" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="290">
   <si>
     <t>CBM1000</t>
   </si>
@@ -902,6 +902,9 @@
   </si>
   <si>
     <t>CIT2102, CIT2200</t>
+  </si>
+  <si>
+    <t>33</t>
   </si>
 </sst>
 </file>
@@ -1447,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A2:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,7 +2059,7 @@
         <v>97</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>145</v>
+        <v>289</v>
       </c>
       <c r="E29" s="25">
         <v>5</v>
@@ -2672,7 +2675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4014FB4E-F87C-4819-8121-E51678866905}">
   <dimension ref="A2:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F55"/>
     </sheetView>
   </sheetViews>

--- a/RutaCritica/MallaCurricular2018.xlsx
+++ b/RutaCritica/MallaCurricular2018.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BC0E9B-F603-4034-A091-CD1EFE98B21D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60180F4-AEDE-4D34-9FD2-6E76186B4693}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2018" sheetId="1" r:id="rId1"/>
     <sheet name="Electivos" sheetId="2" r:id="rId2"/>
+    <sheet name="Equivalencias" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="299">
   <si>
     <t>CBM1000</t>
   </si>
@@ -324,12 +325,6 @@
     <t>COMUNICACIÓN PARA LA INGENIERÍA</t>
   </si>
   <si>
-    <t>INGLÉS I</t>
-  </si>
-  <si>
-    <t>INGLÉS II</t>
-  </si>
-  <si>
     <t>DERECHO EN INGENIERÍA</t>
   </si>
   <si>
@@ -448,9 +443,6 @@
   </si>
   <si>
     <t>CIG1013</t>
-  </si>
-  <si>
-    <t>INGLÉS III</t>
   </si>
   <si>
     <t>54</t>
@@ -905,6 +897,42 @@
   </si>
   <si>
     <t>33</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL I</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL II</t>
+  </si>
+  <si>
+    <t>INGLÉS GENERAL III</t>
+  </si>
+  <si>
+    <t>Malla 2020</t>
+  </si>
+  <si>
+    <t>ESTRUCTURAS DE DATOS Y ALGORITMOS</t>
+  </si>
+  <si>
+    <t>DESARROLLO WEB Y MÓVIL</t>
+  </si>
+  <si>
+    <t>TALLER DE REDES Y SERVICIOS</t>
+  </si>
+  <si>
+    <t>ARQUITECTURA Y ORGANIZ DE COMPUTADORES</t>
+  </si>
+  <si>
+    <t>ARQUITECTURA DE SOFTWARE</t>
+  </si>
+  <si>
+    <t>DATA SCIENCE</t>
+  </si>
+  <si>
+    <t>FIC1002</t>
+  </si>
+  <si>
+    <t>Malla 2018</t>
   </si>
 </sst>
 </file>
@@ -1450,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A2:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,10 +1510,10 @@
         <v>50</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1499,7 +1527,7 @@
         <v>65</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E3" s="21">
         <v>1</v>
@@ -1520,7 +1548,7 @@
         <v>66</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E4" s="21">
         <v>1</v>
@@ -1541,7 +1569,7 @@
         <v>72</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E5" s="21">
         <v>1</v>
@@ -1646,7 +1674,7 @@
         <v>62</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E10" s="22">
         <v>2</v>
@@ -1688,7 +1716,7 @@
         <v>61</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E12" s="22">
         <v>2</v>
@@ -1715,7 +1743,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G13" s="23"/>
     </row>
@@ -1751,13 +1779,13 @@
         <v>63</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E15" s="23">
         <v>3</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G15" s="23"/>
     </row>
@@ -1781,7 +1809,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1804,7 +1832,7 @@
         <v>9</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1815,7 +1843,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>57</v>
@@ -1824,7 +1852,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G18" s="24"/>
     </row>
@@ -1839,16 +1867,16 @@
         <v>71</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E19" s="24">
         <v>4</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1868,7 +1896,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G20" s="24"/>
     </row>
@@ -1892,7 +1920,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1906,7 +1934,7 @@
         <v>61</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E22" s="24">
         <v>4</v>
@@ -1921,10 +1949,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>96</v>
+        <v>287</v>
       </c>
       <c r="D23" s="15">
         <v>27</v>
@@ -1935,7 +1963,9 @@
       <c r="F23" s="15">
         <v>5</v>
       </c>
-      <c r="G23" s="24"/>
+      <c r="G23" s="24" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
@@ -1954,10 +1984,10 @@
         <v>5</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1968,7 +1998,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>59</v>
@@ -1992,16 +2022,16 @@
         <v>89</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E26" s="25">
         <v>5</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2024,7 +2054,7 @@
         <v>19</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2038,7 +2068,7 @@
         <v>61</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E28" s="25">
         <v>5</v>
@@ -2053,13 +2083,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>97</v>
+        <v>288</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E29" s="25">
         <v>5</v>
@@ -2078,10 +2108,10 @@
         <v>22</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E30" s="26">
         <v>6</v>
@@ -2090,7 +2120,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2104,16 +2134,16 @@
         <v>91</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E31" s="26">
         <v>6</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2127,16 +2157,16 @@
         <v>84</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E32" s="26">
         <v>6</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2150,16 +2180,16 @@
         <v>80</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E33" s="26">
         <v>6</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2173,7 +2203,7 @@
         <v>86</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E34" s="26">
         <v>6</v>
@@ -2182,7 +2212,7 @@
         <v>23</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2190,19 +2220,19 @@
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D35" s="17" t="s">
         <v>136</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>139</v>
       </c>
       <c r="E35" s="26">
         <v>6</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G35" s="26"/>
     </row>
@@ -2238,7 +2268,7 @@
         <v>82</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E37" s="27">
         <v>7</v>
@@ -2247,7 +2277,7 @@
         <v>58</v>
       </c>
       <c r="G37" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2270,7 +2300,7 @@
         <v>30</v>
       </c>
       <c r="G38" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2281,10 +2311,10 @@
         <v>30</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E39" s="27">
         <v>7</v>
@@ -2305,7 +2335,7 @@
         <v>87</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E40" s="27">
         <v>7</v>
@@ -2314,7 +2344,7 @@
         <v>32</v>
       </c>
       <c r="G40" s="27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2328,7 +2358,7 @@
         <v>92</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E41" s="28">
         <v>8</v>
@@ -2337,7 +2367,7 @@
         <v>5</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2351,16 +2381,16 @@
         <v>81</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E42" s="28">
         <v>8</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G42" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2374,7 +2404,7 @@
         <v>88</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E43" s="28">
         <v>8</v>
@@ -2383,7 +2413,7 @@
         <v>31</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2397,16 +2427,16 @@
         <v>90</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E44" s="28">
         <v>8</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2420,7 +2450,7 @@
         <v>61</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E45" s="28">
         <v>8</v>
@@ -2441,7 +2471,7 @@
         <v>36</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E46" s="29">
         <v>9</v>
@@ -2462,7 +2492,7 @@
         <v>36</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E47" s="29">
         <v>9</v>
@@ -2483,7 +2513,7 @@
         <v>36</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E48" s="29">
         <v>9</v>
@@ -2504,16 +2534,16 @@
         <v>93</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E49" s="29">
         <v>9</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2527,7 +2557,7 @@
         <v>36</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E50" s="29">
         <v>9</v>
@@ -2548,7 +2578,7 @@
         <v>36</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E51" s="30">
         <v>10</v>
@@ -2569,7 +2599,7 @@
         <v>36</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E52" s="30">
         <v>10</v>
@@ -2590,7 +2620,7 @@
         <v>36</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E53" s="30">
         <v>10</v>
@@ -2611,16 +2641,16 @@
         <v>94</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E54" s="30">
         <v>10</v>
       </c>
       <c r="F54" s="34" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G54" s="30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2634,7 +2664,7 @@
         <v>36</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E55" s="30">
         <v>10</v>
@@ -2649,10 +2679,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D56" s="34">
         <v>0</v>
@@ -2661,7 +2691,7 @@
         <v>11</v>
       </c>
       <c r="F56" s="36" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G56" s="30"/>
     </row>
@@ -2689,22 +2719,22 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="F2" s="37" t="s">
         <v>155</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2712,10 +2742,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>35</v>
@@ -2730,10 +2760,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>33</v>
@@ -2748,10 +2778,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D5" s="38" t="s">
         <v>21</v>
@@ -2760,7 +2790,7 @@
         <v>54</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2768,10 +2798,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>28</v>
@@ -2786,10 +2816,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>35</v>
@@ -2804,10 +2834,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D8" s="38" t="s">
         <v>28</v>
@@ -2822,13 +2852,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D9" s="38" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E9" s="39">
         <v>54</v>
@@ -2840,19 +2870,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E10" s="39">
         <v>54</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2860,13 +2890,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E11" s="39">
         <v>54</v>
@@ -2878,19 +2908,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E12" s="39">
         <v>54</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2898,13 +2928,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E13" s="39">
         <v>54</v>
@@ -2916,13 +2946,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E14" s="39">
         <v>54</v>
@@ -2934,10 +2964,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>21</v>
@@ -2952,10 +2982,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>35</v>
@@ -2970,10 +3000,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D17" s="38" t="s">
         <v>35</v>
@@ -2988,10 +3018,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>21</v>
@@ -3006,10 +3036,10 @@
         <v>1</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D19" s="38"/>
       <c r="E19" s="39">
@@ -3022,13 +3052,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E20" s="39">
         <v>54</v>
@@ -3040,13 +3070,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E21" s="39">
         <v>54</v>
@@ -3058,13 +3088,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E22" s="39">
         <v>54</v>
@@ -3076,10 +3106,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>17</v>
@@ -3094,19 +3124,19 @@
         <v>1</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="E24" s="39">
+        <v>54</v>
+      </c>
+      <c r="F24" s="40" t="s">
         <v>209</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="E24" s="39">
-        <v>54</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3114,13 +3144,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E25" s="39">
         <v>54</v>
@@ -3132,13 +3162,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E26" s="39">
         <v>54</v>
@@ -3150,10 +3180,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D27" s="38" t="s">
         <v>35</v>
@@ -3168,13 +3198,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E28" s="39">
         <v>54</v>
@@ -3186,13 +3216,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D29" s="38" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E29" s="39">
         <v>54</v>
@@ -3204,10 +3234,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D30" s="38" t="s">
         <v>28</v>
@@ -3222,10 +3252,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>21</v>
@@ -3240,13 +3270,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D32" s="38" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E32" s="39">
         <v>54</v>
@@ -3258,10 +3288,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D33" s="38" t="s">
         <v>35</v>
@@ -3270,7 +3300,7 @@
         <v>54</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3278,13 +3308,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E34" s="39">
         <v>54</v>
@@ -3296,10 +3326,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D35" s="38" t="s">
         <v>28</v>
@@ -3314,10 +3344,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D36" s="38" t="s">
         <v>28</v>
@@ -3332,13 +3362,13 @@
         <v>1</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D37" s="38" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E37" s="39">
         <v>54</v>
@@ -3350,13 +3380,13 @@
         <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E38" s="39">
         <v>54</v>
@@ -3368,13 +3398,13 @@
         <v>2</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E39" s="39">
         <v>54</v>
@@ -3386,10 +3416,10 @@
         <v>2</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D40" s="38" t="s">
         <v>34</v>
@@ -3404,13 +3434,13 @@
         <v>2</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E41" s="39">
         <v>54</v>
@@ -3422,10 +3452,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D42" s="38" t="s">
         <v>29</v>
@@ -3440,10 +3470,10 @@
         <v>2</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D43" s="38" t="s">
         <v>35</v>
@@ -3458,10 +3488,10 @@
         <v>2</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D44" s="38" t="s">
         <v>29</v>
@@ -3476,10 +3506,10 @@
         <v>2</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D45" s="38" t="s">
         <v>34</v>
@@ -3494,13 +3524,13 @@
         <v>2</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E46" s="39">
         <v>54</v>
@@ -3512,13 +3542,13 @@
         <v>2</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E47" s="39">
         <v>54</v>
@@ -3530,10 +3560,10 @@
         <v>2</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D48" s="38" t="s">
         <v>29</v>
@@ -3548,13 +3578,13 @@
         <v>2</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E49" s="39">
         <v>54</v>
@@ -3566,13 +3596,13 @@
         <v>2</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E50" s="39">
         <v>54</v>
@@ -3584,10 +3614,10 @@
         <v>2</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D51" s="38" t="s">
         <v>34</v>
@@ -3602,10 +3632,10 @@
         <v>2</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D52" s="38" t="s">
         <v>21</v>
@@ -3620,10 +3650,10 @@
         <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D53" s="38" t="s">
         <v>31</v>
@@ -3638,10 +3668,10 @@
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D54" s="38" t="s">
         <v>29</v>
@@ -3650,7 +3680,7 @@
         <v>54</v>
       </c>
       <c r="F54" s="40" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3658,18 +3688,133 @@
         <v>2</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C55" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="E55" s="39">
+        <v>54</v>
+      </c>
+      <c r="F55" s="40"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D408C3EA-25FB-45D4-B6B7-42F43E06065D}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="D55" s="38" t="s">
+      <c r="B11" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="E55" s="39">
-        <v>54</v>
-      </c>
-      <c r="F55" s="40"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>289</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RutaCritica/MallaCurricular2018.xlsx
+++ b/RutaCritica/MallaCurricular2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60180F4-AEDE-4D34-9FD2-6E76186B4693}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C9F337-3D73-4E45-B1DE-2271B1B95DF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="295">
   <si>
     <t>CBM1000</t>
   </si>
@@ -911,28 +911,16 @@
     <t>Malla 2020</t>
   </si>
   <si>
-    <t>ESTRUCTURAS DE DATOS Y ALGORITMOS</t>
-  </si>
-  <si>
-    <t>DESARROLLO WEB Y MÓVIL</t>
-  </si>
-  <si>
-    <t>TALLER DE REDES Y SERVICIOS</t>
-  </si>
-  <si>
-    <t>ARQUITECTURA Y ORGANIZ DE COMPUTADORES</t>
-  </si>
-  <si>
-    <t>ARQUITECTURA DE SOFTWARE</t>
-  </si>
-  <si>
-    <t>DATA SCIENCE</t>
-  </si>
-  <si>
     <t>FIC1002</t>
   </si>
   <si>
     <t>Malla 2018</t>
+  </si>
+  <si>
+    <t>CIG1002</t>
+  </si>
+  <si>
+    <t>CIG1003</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1051,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1101,12 +1089,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1150,6 +1162,13 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -1478,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A2:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1964,7 +1983,7 @@
         <v>5</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -3711,109 +3730,110 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.140625" customWidth="1"/>
     <col min="2" max="2" width="51.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>291</v>
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>292</v>
+      <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>291</v>
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="42" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="9" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="42" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
-        <v>288</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/RutaCritica/MallaCurricular2018.xlsx
+++ b/RutaCritica/MallaCurricular2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C9F337-3D73-4E45-B1DE-2271B1B95DF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32857D12-9CA5-4A39-86CE-D6F22E804C1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2018" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="289">
   <si>
     <t>CBM1000</t>
   </si>
@@ -148,36 +148,12 @@
     <t>Electivo Profesional</t>
   </si>
   <si>
-    <t>CIT33XX-1</t>
-  </si>
-  <si>
-    <t>CIT34XX-1</t>
-  </si>
-  <si>
-    <t>CIT34XX-2</t>
-  </si>
-  <si>
     <t>CIT3200</t>
   </si>
   <si>
-    <t>CIT33XX-2</t>
-  </si>
-  <si>
-    <t>CIT33XX-3</t>
-  </si>
-  <si>
-    <t>CIT34XX-3</t>
-  </si>
-  <si>
-    <t>CIT34XX-4</t>
-  </si>
-  <si>
     <t>CIT3201</t>
   </si>
   <si>
-    <t>CIT33XX-4</t>
-  </si>
-  <si>
     <t>Código</t>
   </si>
   <si>
@@ -313,9 +289,6 @@
     <t>MODELOS ESTOCASTICOS Y SIMULACIÓN</t>
   </si>
   <si>
-    <t>GESTIÓN ORGANIZACIÓNAL</t>
-  </si>
-  <si>
     <t>EVALUACIÓN DE PROYECTOS TIC</t>
   </si>
   <si>
@@ -376,9 +349,6 @@
     <t>Prerreq</t>
   </si>
   <si>
-    <t>Equivalencias</t>
-  </si>
-  <si>
     <t>CIT2109</t>
   </si>
   <si>
@@ -481,10 +451,6 @@
     <t>7, 8, 34</t>
   </si>
   <si>
-    <t xml:space="preserve">3, 10, 13 , 17, 20, 26, 28, 29, 33, 36, 37, 38, 39, 40, 42, 43, 44, 
-45, 47, 48, 49, 50, 51, 52, 53 </t>
-  </si>
-  <si>
     <t>40, 42</t>
   </si>
   <si>
@@ -680,9 +646,6 @@
     <t>CIT3335</t>
   </si>
   <si>
-    <t>INTERFACE HUMANE MÁQUINA</t>
-  </si>
-  <si>
     <t>CIT2005, CIT2104</t>
   </si>
   <si>
@@ -911,9 +874,6 @@
     <t>Malla 2020</t>
   </si>
   <si>
-    <t>FIC1002</t>
-  </si>
-  <si>
     <t>Malla 2018</t>
   </si>
   <si>
@@ -921,6 +881,27 @@
   </si>
   <si>
     <t>CIG1003</t>
+  </si>
+  <si>
+    <t>GESTIÓN ORGANIZACIONAL</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>CIT33XX</t>
+  </si>
+  <si>
+    <t>CIT34XX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3, 10, 13 , 17, 20, 26, 28, 29, 33, 36, 37, 38, 39, 40, 42, 43, 44, 45, 47, 48, 49, 50, 51, 52, 53 </t>
+  </si>
+  <si>
+    <t>INTERFACE HUMANO MÁQUINA</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1032,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1089,36 +1070,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1162,13 +1119,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -1495,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
-  <dimension ref="A2:J56"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,41 +1462,58 @@
     <col min="7" max="7" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="21">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="E3" s="21">
         <v>1</v>
@@ -1554,20 +1521,19 @@
       <c r="F3" s="12">
         <v>0</v>
       </c>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E4" s="21">
         <v>1</v>
@@ -1575,20 +1541,19 @@
       <c r="F4" s="12">
         <v>0</v>
       </c>
-      <c r="G4" s="21"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>136</v>
+        <v>67</v>
+      </c>
+      <c r="D5" s="12">
+        <v>9</v>
       </c>
       <c r="E5" s="21">
         <v>1</v>
@@ -1596,20 +1561,19 @@
       <c r="F5" s="12">
         <v>0</v>
       </c>
-      <c r="G5" s="21"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D6" s="12">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E6" s="21">
         <v>1</v>
@@ -1617,62 +1581,59 @@
       <c r="F6" s="12">
         <v>0</v>
       </c>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="12">
-        <v>38</v>
-      </c>
-      <c r="E7" s="21">
-        <v>1</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="22">
+        <v>2</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E8" s="22">
         <v>2</v>
       </c>
       <c r="F8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="E9" s="22">
         <v>2</v>
@@ -1680,146 +1641,139 @@
       <c r="F9" s="13">
         <v>2</v>
       </c>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="E10" s="22">
         <v>2</v>
       </c>
       <c r="F10" s="13">
-        <v>2</v>
-      </c>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="E11" s="22">
         <v>2</v>
       </c>
       <c r="F11" s="13">
-        <v>4</v>
-      </c>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="14">
+        <v>18</v>
+      </c>
+      <c r="E12" s="23">
+        <v>3</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="22">
-        <v>2</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0</v>
-      </c>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="14">
-        <v>18</v>
+        <v>62</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="E13" s="23">
         <v>3</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="23"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="E14" s="23">
         <v>3</v>
       </c>
-      <c r="F14" s="14">
-        <v>7</v>
-      </c>
-      <c r="G14" s="23"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>136</v>
+        <v>69</v>
+      </c>
+      <c r="D15" s="14">
+        <v>19</v>
       </c>
       <c r="E15" s="23">
         <v>3</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="23"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="14">
-        <v>19</v>
+        <v>75</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="E16" s="23">
         <v>3</v>
@@ -1827,670 +1781,600 @@
       <c r="F16" s="14">
         <v>9</v>
       </c>
-      <c r="G16" s="23" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="23">
-        <v>3</v>
-      </c>
-      <c r="F17" s="14">
-        <v>9</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>131</v>
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="24">
+        <v>4</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="E18" s="24">
         <v>4</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="24"/>
+        <v>91</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>136</v>
+        <v>56</v>
+      </c>
+      <c r="D19" s="15">
+        <v>23</v>
       </c>
       <c r="E19" s="24">
         <v>4</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="15">
-        <v>23</v>
+        <v>70</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="E20" s="24">
         <v>4</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="24"/>
+      <c r="F20" s="15">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="E21" s="24">
         <v>4</v>
       </c>
       <c r="F21" s="15">
-        <v>14</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>136</v>
+        <v>275</v>
+      </c>
+      <c r="D22" s="15">
+        <v>27</v>
       </c>
       <c r="E22" s="24">
         <v>4</v>
       </c>
       <c r="F22" s="15">
-        <v>0</v>
-      </c>
-      <c r="G22" s="24"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="D23" s="15">
-        <v>27</v>
-      </c>
-      <c r="E23" s="24">
-        <v>4</v>
-      </c>
-      <c r="F23" s="15">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="16">
+        <v>29</v>
+      </c>
+      <c r="E23" s="25">
         <v>5</v>
       </c>
-      <c r="G23" s="24" t="s">
-        <v>291</v>
+      <c r="F23" s="16" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="16">
-        <v>29</v>
+        <v>89</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>51</v>
       </c>
       <c r="E24" s="25">
         <v>5</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>118</v>
+      <c r="F24" s="33">
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>59</v>
+        <v>81</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="E25" s="25">
         <v>5</v>
       </c>
-      <c r="F25" s="33">
-        <v>18</v>
-      </c>
-      <c r="G25" s="25"/>
+      <c r="F25" s="16" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="E26" s="25">
         <v>5</v>
       </c>
-      <c r="F26" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>128</v>
+      <c r="F26" s="16">
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="E27" s="25">
         <v>5</v>
       </c>
       <c r="F27" s="16">
-        <v>19</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>61</v>
+        <v>276</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>136</v>
+        <v>274</v>
       </c>
       <c r="E28" s="25">
         <v>5</v>
       </c>
       <c r="F28" s="16">
-        <v>0</v>
-      </c>
-      <c r="G28" s="25"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="E29" s="25">
-        <v>5</v>
-      </c>
-      <c r="F29" s="16">
-        <v>21</v>
-      </c>
-      <c r="G29" s="25"/>
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="26">
+        <v>6</v>
+      </c>
+      <c r="F29" s="17">
+        <v>12</v>
+      </c>
       <c r="J29" s="31"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E30" s="26">
         <v>6</v>
       </c>
-      <c r="F30" s="17">
-        <v>12</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>125</v>
+      <c r="F30" s="17" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E31" s="26">
         <v>6</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E32" s="26">
         <v>6</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E33" s="26">
         <v>6</v>
       </c>
-      <c r="F33" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>86</v>
+        <v>277</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E34" s="26">
         <v>6</v>
       </c>
-      <c r="F34" s="17">
-        <v>23</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>33</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E35" s="26">
-        <v>6</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="G35" s="26"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="27">
+        <v>7</v>
+      </c>
+      <c r="F35" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="18">
-        <v>46</v>
+        <v>74</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>138</v>
       </c>
       <c r="E36" s="27">
         <v>7</v>
       </c>
-      <c r="F36" s="18">
-        <v>2</v>
-      </c>
-      <c r="G36" s="27"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F36" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>149</v>
+        <v>283</v>
       </c>
       <c r="E37" s="27">
         <v>7</v>
       </c>
-      <c r="F37" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F37" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="18">
-        <v>41</v>
+        <v>87</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>126</v>
       </c>
       <c r="E38" s="27">
         <v>7</v>
       </c>
       <c r="F38" s="18">
-        <v>30</v>
-      </c>
-      <c r="G38" s="27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E39" s="27">
         <v>7</v>
       </c>
       <c r="F39" s="18">
-        <v>0</v>
-      </c>
-      <c r="G39" s="27"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>38</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="E40" s="27">
-        <v>7</v>
-      </c>
-      <c r="F40" s="18">
         <v>32</v>
       </c>
-      <c r="G40" s="27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="28">
+        <v>8</v>
+      </c>
+      <c r="F40" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E41" s="28">
         <v>8</v>
       </c>
-      <c r="F41" s="19">
-        <v>5</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F41" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E42" s="28">
         <v>8</v>
       </c>
-      <c r="F42" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F42" s="19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E43" s="28">
         <v>8</v>
       </c>
-      <c r="F43" s="19">
-        <v>31</v>
-      </c>
-      <c r="G43" s="28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F43" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E44" s="28">
         <v>8</v>
       </c>
-      <c r="F44" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="G44" s="28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
-        <v>43</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E45" s="28">
-        <v>8</v>
-      </c>
-      <c r="F45" s="19">
+      <c r="F44" s="19">
         <v>0</v>
       </c>
-      <c r="G45" s="28"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="29">
+        <v>9</v>
+      </c>
+      <c r="F45" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>37</v>
+        <v>285</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E46" s="29">
         <v>9</v>
@@ -2498,20 +2382,19 @@
       <c r="F46" s="20">
         <v>0</v>
       </c>
-      <c r="G46" s="29"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E47" s="29">
         <v>9</v>
@@ -2519,200 +2402,166 @@
       <c r="F47" s="20">
         <v>0</v>
       </c>
-      <c r="G47" s="29"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E48" s="29">
         <v>9</v>
       </c>
-      <c r="F48" s="20">
-        <v>0</v>
-      </c>
-      <c r="G48" s="29"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F48" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>40</v>
+        <v>284</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E49" s="29">
         <v>9</v>
       </c>
-      <c r="F49" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="G49" s="29" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
-        <v>48</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" s="9" t="s">
+      <c r="F49" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>49</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="E50" s="29">
-        <v>9</v>
-      </c>
-      <c r="F50" s="20">
+      <c r="D50" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="30">
+        <v>10</v>
+      </c>
+      <c r="F50" s="34">
         <v>0</v>
       </c>
-      <c r="G50" s="29"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>42</v>
+        <v>285</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E51" s="30">
         <v>10</v>
       </c>
-      <c r="F51" s="34">
-        <v>0</v>
-      </c>
-      <c r="G51" s="30"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F51" s="34" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>43</v>
+        <v>285</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E52" s="30">
         <v>10</v>
       </c>
-      <c r="F52" s="34">
-        <v>0</v>
-      </c>
-      <c r="G52" s="30"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F52" s="34" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E53" s="30">
         <v>10</v>
       </c>
-      <c r="F53" s="34">
-        <v>0</v>
-      </c>
-      <c r="G53" s="30"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F53" s="34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E54" s="30">
         <v>10</v>
       </c>
       <c r="F54" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="G54" s="30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>136</v>
+        <v>100</v>
+      </c>
+      <c r="D55" s="34">
+        <v>0</v>
       </c>
       <c r="E55" s="30">
-        <v>10</v>
-      </c>
-      <c r="F55" s="34">
-        <v>0</v>
-      </c>
-      <c r="G55" s="30"/>
-    </row>
-    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
-        <v>54</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D56" s="34">
-        <v>0</v>
-      </c>
-      <c r="E56" s="30">
         <v>11</v>
       </c>
-      <c r="F56" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="G56" s="30"/>
+      <c r="F55" s="36" t="s">
+        <v>286</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2724,36 +2573,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4014FB4E-F87C-4819-8121-E51678866905}">
   <dimension ref="A2:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="53.5703125" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2761,16 +2611,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="39">
+        <v>54</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>35</v>
-      </c>
-      <c r="E3" s="39">
-        <v>54</v>
       </c>
       <c r="F3" s="40"/>
     </row>
@@ -2779,16 +2629,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="39">
+        <v>54</v>
+      </c>
+      <c r="E4" s="38" t="s">
         <v>33</v>
-      </c>
-      <c r="E4" s="39">
-        <v>54</v>
       </c>
       <c r="F4" s="40"/>
     </row>
@@ -2797,19 +2647,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="39">
+        <v>54</v>
+      </c>
+      <c r="E5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="39">
-        <v>54</v>
-      </c>
       <c r="F5" s="40" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2817,16 +2667,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="39">
+        <v>54</v>
+      </c>
+      <c r="E6" s="38" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" s="39">
-        <v>54</v>
       </c>
       <c r="F6" s="40"/>
     </row>
@@ -2835,16 +2685,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D7" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="39">
+        <v>54</v>
+      </c>
+      <c r="E7" s="38" t="s">
         <v>35</v>
-      </c>
-      <c r="E7" s="39">
-        <v>54</v>
       </c>
       <c r="F7" s="40"/>
     </row>
@@ -2853,16 +2703,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="39">
+        <v>54</v>
+      </c>
+      <c r="E8" s="38" t="s">
         <v>28</v>
-      </c>
-      <c r="E8" s="39">
-        <v>54</v>
       </c>
       <c r="F8" s="40"/>
     </row>
@@ -2871,16 +2721,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9" s="39">
-        <v>54</v>
+        <v>159</v>
+      </c>
+      <c r="D9" s="39">
+        <v>54</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>160</v>
       </c>
       <c r="F9" s="40"/>
     </row>
@@ -2889,19 +2739,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E10" s="39">
-        <v>54</v>
+        <v>162</v>
+      </c>
+      <c r="D10" s="39">
+        <v>54</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>163</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2909,16 +2759,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E11" s="39">
-        <v>54</v>
+        <v>165</v>
+      </c>
+      <c r="D11" s="39">
+        <v>54</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>163</v>
       </c>
       <c r="F11" s="40"/>
     </row>
@@ -2927,19 +2777,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12" s="39">
-        <v>54</v>
+        <v>167</v>
+      </c>
+      <c r="D12" s="39">
+        <v>54</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>168</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2947,16 +2797,16 @@
         <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" s="39">
-        <v>54</v>
+        <v>170</v>
+      </c>
+      <c r="D13" s="39">
+        <v>54</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="F13" s="40"/>
     </row>
@@ -2965,16 +2815,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="E14" s="39">
-        <v>54</v>
+        <v>173</v>
+      </c>
+      <c r="D14" s="39">
+        <v>54</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>174</v>
       </c>
       <c r="F14" s="40"/>
     </row>
@@ -2983,16 +2833,16 @@
         <v>1</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="39">
+        <v>54</v>
+      </c>
+      <c r="E15" s="38" t="s">
         <v>21</v>
-      </c>
-      <c r="E15" s="39">
-        <v>54</v>
       </c>
       <c r="F15" s="40"/>
     </row>
@@ -3001,16 +2851,16 @@
         <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D16" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="39">
+        <v>54</v>
+      </c>
+      <c r="E16" s="38" t="s">
         <v>35</v>
-      </c>
-      <c r="E16" s="39">
-        <v>54</v>
       </c>
       <c r="F16" s="40"/>
     </row>
@@ -3019,16 +2869,16 @@
         <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D17" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="39">
+        <v>54</v>
+      </c>
+      <c r="E17" s="38" t="s">
         <v>35</v>
-      </c>
-      <c r="E17" s="39">
-        <v>54</v>
       </c>
       <c r="F17" s="40"/>
     </row>
@@ -3037,16 +2887,16 @@
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D18" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="39">
+        <v>54</v>
+      </c>
+      <c r="E18" s="38" t="s">
         <v>21</v>
-      </c>
-      <c r="E18" s="39">
-        <v>54</v>
       </c>
       <c r="F18" s="40"/>
     </row>
@@ -3055,15 +2905,15 @@
         <v>1</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39">
-        <v>54</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D19" s="39">
+        <v>54</v>
+      </c>
+      <c r="E19" s="38"/>
       <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3071,16 +2921,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="E20" s="39">
-        <v>54</v>
+        <v>186</v>
+      </c>
+      <c r="D20" s="39">
+        <v>54</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>187</v>
       </c>
       <c r="F20" s="40"/>
     </row>
@@ -3089,16 +2939,16 @@
         <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="E21" s="39">
-        <v>54</v>
+        <v>189</v>
+      </c>
+      <c r="D21" s="39">
+        <v>54</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>187</v>
       </c>
       <c r="F21" s="40"/>
     </row>
@@ -3107,16 +2957,16 @@
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="E22" s="39">
-        <v>54</v>
+        <v>191</v>
+      </c>
+      <c r="D22" s="39">
+        <v>54</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>192</v>
       </c>
       <c r="F22" s="40"/>
     </row>
@@ -3125,16 +2975,16 @@
         <v>1</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D23" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="39">
+        <v>54</v>
+      </c>
+      <c r="E23" s="38" t="s">
         <v>17</v>
-      </c>
-      <c r="E23" s="39">
-        <v>54</v>
       </c>
       <c r="F23" s="40"/>
     </row>
@@ -3143,19 +2993,19 @@
         <v>1</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="E24" s="39">
-        <v>54</v>
+        <v>196</v>
+      </c>
+      <c r="D24" s="39">
+        <v>54</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>197</v>
       </c>
       <c r="F24" s="40" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3163,16 +3013,16 @@
         <v>1</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="E25" s="39">
-        <v>54</v>
+        <v>200</v>
+      </c>
+      <c r="D25" s="39">
+        <v>54</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>201</v>
       </c>
       <c r="F25" s="40"/>
     </row>
@@ -3181,16 +3031,16 @@
         <v>1</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="E26" s="39">
-        <v>54</v>
+        <v>287</v>
+      </c>
+      <c r="D26" s="39">
+        <v>54</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>203</v>
       </c>
       <c r="F26" s="40"/>
     </row>
@@ -3199,16 +3049,16 @@
         <v>1</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D27" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27" s="39">
+        <v>54</v>
+      </c>
+      <c r="E27" s="38" t="s">
         <v>35</v>
-      </c>
-      <c r="E27" s="39">
-        <v>54</v>
       </c>
       <c r="F27" s="40"/>
     </row>
@@ -3217,16 +3067,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="E28" s="39">
-        <v>54</v>
+        <v>207</v>
+      </c>
+      <c r="D28" s="39">
+        <v>54</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>208</v>
       </c>
       <c r="F28" s="40"/>
     </row>
@@ -3235,16 +3085,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="E29" s="39">
-        <v>54</v>
+        <v>210</v>
+      </c>
+      <c r="D29" s="39">
+        <v>54</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>211</v>
       </c>
       <c r="F29" s="40"/>
     </row>
@@ -3253,16 +3103,16 @@
         <v>1</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="D30" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" s="39">
+        <v>54</v>
+      </c>
+      <c r="E30" s="38" t="s">
         <v>28</v>
-      </c>
-      <c r="E30" s="39">
-        <v>54</v>
       </c>
       <c r="F30" s="40"/>
     </row>
@@ -3271,16 +3121,16 @@
         <v>1</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D31" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" s="39">
+        <v>54</v>
+      </c>
+      <c r="E31" s="38" t="s">
         <v>21</v>
-      </c>
-      <c r="E31" s="39">
-        <v>54</v>
       </c>
       <c r="F31" s="40"/>
     </row>
@@ -3289,16 +3139,16 @@
         <v>1</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="E32" s="39">
-        <v>54</v>
+        <v>217</v>
+      </c>
+      <c r="D32" s="39">
+        <v>54</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>208</v>
       </c>
       <c r="F32" s="40"/>
     </row>
@@ -3307,19 +3157,19 @@
         <v>1</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D33" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" s="39">
+        <v>54</v>
+      </c>
+      <c r="E33" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="39">
-        <v>54</v>
-      </c>
       <c r="F33" s="40" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3327,16 +3177,16 @@
         <v>1</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="E34" s="39">
-        <v>54</v>
+        <v>222</v>
+      </c>
+      <c r="D34" s="39">
+        <v>54</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>223</v>
       </c>
       <c r="F34" s="40"/>
     </row>
@@ -3345,16 +3195,16 @@
         <v>1</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D35" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="D35" s="39">
+        <v>54</v>
+      </c>
+      <c r="E35" s="38" t="s">
         <v>28</v>
-      </c>
-      <c r="E35" s="39">
-        <v>54</v>
       </c>
       <c r="F35" s="40"/>
     </row>
@@ -3363,16 +3213,16 @@
         <v>1</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D36" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" s="39">
+        <v>54</v>
+      </c>
+      <c r="E36" s="38" t="s">
         <v>28</v>
-      </c>
-      <c r="E36" s="39">
-        <v>54</v>
       </c>
       <c r="F36" s="40"/>
     </row>
@@ -3381,16 +3231,16 @@
         <v>1</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="E37" s="39">
-        <v>54</v>
+        <v>229</v>
+      </c>
+      <c r="D37" s="39">
+        <v>54</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>230</v>
       </c>
       <c r="F37" s="40"/>
     </row>
@@ -3399,16 +3249,16 @@
         <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="E38" s="39">
-        <v>54</v>
+        <v>232</v>
+      </c>
+      <c r="D38" s="39">
+        <v>54</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>233</v>
       </c>
       <c r="F38" s="40"/>
     </row>
@@ -3417,16 +3267,16 @@
         <v>2</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="E39" s="39">
-        <v>54</v>
+        <v>235</v>
+      </c>
+      <c r="D39" s="39">
+        <v>54</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>236</v>
       </c>
       <c r="F39" s="40"/>
     </row>
@@ -3435,16 +3285,16 @@
         <v>2</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D40" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="D40" s="39">
+        <v>54</v>
+      </c>
+      <c r="E40" s="38" t="s">
         <v>34</v>
-      </c>
-      <c r="E40" s="39">
-        <v>54</v>
       </c>
       <c r="F40" s="40"/>
     </row>
@@ -3453,16 +3303,16 @@
         <v>2</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="E41" s="39">
-        <v>54</v>
+        <v>240</v>
+      </c>
+      <c r="D41" s="39">
+        <v>54</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>241</v>
       </c>
       <c r="F41" s="40"/>
     </row>
@@ -3471,16 +3321,16 @@
         <v>2</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D42" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="D42" s="39">
+        <v>54</v>
+      </c>
+      <c r="E42" s="38" t="s">
         <v>29</v>
-      </c>
-      <c r="E42" s="39">
-        <v>54</v>
       </c>
       <c r="F42" s="40"/>
     </row>
@@ -3489,16 +3339,16 @@
         <v>2</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D43" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="D43" s="39">
+        <v>54</v>
+      </c>
+      <c r="E43" s="38" t="s">
         <v>35</v>
-      </c>
-      <c r="E43" s="39">
-        <v>54</v>
       </c>
       <c r="F43" s="40"/>
     </row>
@@ -3507,16 +3357,16 @@
         <v>2</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D44" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="D44" s="39">
+        <v>54</v>
+      </c>
+      <c r="E44" s="38" t="s">
         <v>29</v>
-      </c>
-      <c r="E44" s="39">
-        <v>54</v>
       </c>
       <c r="F44" s="40"/>
     </row>
@@ -3525,16 +3375,16 @@
         <v>2</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D45" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="D45" s="39">
+        <v>54</v>
+      </c>
+      <c r="E45" s="38" t="s">
         <v>34</v>
-      </c>
-      <c r="E45" s="39">
-        <v>54</v>
       </c>
       <c r="F45" s="40"/>
     </row>
@@ -3543,16 +3393,16 @@
         <v>2</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="E46" s="39">
-        <v>54</v>
+        <v>251</v>
+      </c>
+      <c r="D46" s="39">
+        <v>54</v>
+      </c>
+      <c r="E46" s="38" t="s">
+        <v>236</v>
       </c>
       <c r="F46" s="40"/>
     </row>
@@ -3561,16 +3411,16 @@
         <v>2</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D47" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="E47" s="39">
-        <v>54</v>
+        <v>253</v>
+      </c>
+      <c r="D47" s="39">
+        <v>54</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>233</v>
       </c>
       <c r="F47" s="40"/>
     </row>
@@ -3579,16 +3429,16 @@
         <v>2</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D48" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="D48" s="39">
+        <v>54</v>
+      </c>
+      <c r="E48" s="38" t="s">
         <v>29</v>
-      </c>
-      <c r="E48" s="39">
-        <v>54</v>
       </c>
       <c r="F48" s="40"/>
     </row>
@@ -3597,16 +3447,16 @@
         <v>2</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="D49" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="E49" s="39">
-        <v>54</v>
+        <v>257</v>
+      </c>
+      <c r="D49" s="39">
+        <v>54</v>
+      </c>
+      <c r="E49" s="38" t="s">
+        <v>258</v>
       </c>
       <c r="F49" s="40"/>
     </row>
@@ -3615,16 +3465,16 @@
         <v>2</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="E50" s="39">
-        <v>54</v>
+        <v>260</v>
+      </c>
+      <c r="D50" s="39">
+        <v>54</v>
+      </c>
+      <c r="E50" s="38" t="s">
+        <v>261</v>
       </c>
       <c r="F50" s="40"/>
     </row>
@@ -3633,16 +3483,16 @@
         <v>2</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D51" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="D51" s="39">
+        <v>54</v>
+      </c>
+      <c r="E51" s="38" t="s">
         <v>34</v>
-      </c>
-      <c r="E51" s="39">
-        <v>54</v>
       </c>
       <c r="F51" s="40"/>
     </row>
@@ -3651,16 +3501,16 @@
         <v>2</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D52" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="D52" s="39">
+        <v>54</v>
+      </c>
+      <c r="E52" s="38" t="s">
         <v>21</v>
-      </c>
-      <c r="E52" s="39">
-        <v>54</v>
       </c>
       <c r="F52" s="40"/>
     </row>
@@ -3669,16 +3519,16 @@
         <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D53" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="D53" s="39">
+        <v>54</v>
+      </c>
+      <c r="E53" s="38" t="s">
         <v>31</v>
-      </c>
-      <c r="E53" s="39">
-        <v>54</v>
       </c>
       <c r="F53" s="40"/>
     </row>
@@ -3687,19 +3537,19 @@
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="D54" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="D54" s="39">
+        <v>54</v>
+      </c>
+      <c r="E54" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E54" s="39">
-        <v>54</v>
-      </c>
       <c r="F54" s="40" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3707,16 +3557,16 @@
         <v>2</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D55" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="E55" s="39">
-        <v>54</v>
+        <v>272</v>
+      </c>
+      <c r="D55" s="39">
+        <v>54</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>273</v>
       </c>
       <c r="F55" s="40"/>
     </row>
@@ -3727,10 +3577,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D408C3EA-25FB-45D4-B6B7-42F43E06065D}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3742,98 +3592,194 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B12" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B15" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="B18" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="B20" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>294</v>
+      <c r="B22" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/RutaCritica/MallaCurricular2018.xlsx
+++ b/RutaCritica/MallaCurricular2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32857D12-9CA5-4A39-86CE-D6F22E804C1C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A3BD91-1921-44B5-B4B4-59CACE91E12D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
@@ -1032,7 +1032,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1070,12 +1070,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1119,6 +1128,9 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -2573,8 +2585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4014FB4E-F87C-4819-8121-E51678866905}">
   <dimension ref="A2:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3539,7 +3551,7 @@
       <c r="B54" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="41" t="s">
         <v>269</v>
       </c>
       <c r="D54" s="39">

--- a/RutaCritica/MallaCurricular2018.xlsx
+++ b/RutaCritica/MallaCurricular2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C9F337-3D73-4E45-B1DE-2271B1B95DF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A3BD91-1921-44B5-B4B4-59CACE91E12D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2018" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="289">
   <si>
     <t>CBM1000</t>
   </si>
@@ -148,36 +148,12 @@
     <t>Electivo Profesional</t>
   </si>
   <si>
-    <t>CIT33XX-1</t>
-  </si>
-  <si>
-    <t>CIT34XX-1</t>
-  </si>
-  <si>
-    <t>CIT34XX-2</t>
-  </si>
-  <si>
     <t>CIT3200</t>
   </si>
   <si>
-    <t>CIT33XX-2</t>
-  </si>
-  <si>
-    <t>CIT33XX-3</t>
-  </si>
-  <si>
-    <t>CIT34XX-3</t>
-  </si>
-  <si>
-    <t>CIT34XX-4</t>
-  </si>
-  <si>
     <t>CIT3201</t>
   </si>
   <si>
-    <t>CIT33XX-4</t>
-  </si>
-  <si>
     <t>Código</t>
   </si>
   <si>
@@ -313,9 +289,6 @@
     <t>MODELOS ESTOCASTICOS Y SIMULACIÓN</t>
   </si>
   <si>
-    <t>GESTIÓN ORGANIZACIÓNAL</t>
-  </si>
-  <si>
     <t>EVALUACIÓN DE PROYECTOS TIC</t>
   </si>
   <si>
@@ -376,9 +349,6 @@
     <t>Prerreq</t>
   </si>
   <si>
-    <t>Equivalencias</t>
-  </si>
-  <si>
     <t>CIT2109</t>
   </si>
   <si>
@@ -481,10 +451,6 @@
     <t>7, 8, 34</t>
   </si>
   <si>
-    <t xml:space="preserve">3, 10, 13 , 17, 20, 26, 28, 29, 33, 36, 37, 38, 39, 40, 42, 43, 44, 
-45, 47, 48, 49, 50, 51, 52, 53 </t>
-  </si>
-  <si>
     <t>40, 42</t>
   </si>
   <si>
@@ -680,9 +646,6 @@
     <t>CIT3335</t>
   </si>
   <si>
-    <t>INTERFACE HUMANE MÁQUINA</t>
-  </si>
-  <si>
     <t>CIT2005, CIT2104</t>
   </si>
   <si>
@@ -911,9 +874,6 @@
     <t>Malla 2020</t>
   </si>
   <si>
-    <t>FIC1002</t>
-  </si>
-  <si>
     <t>Malla 2018</t>
   </si>
   <si>
@@ -921,6 +881,27 @@
   </si>
   <si>
     <t>CIG1003</t>
+  </si>
+  <si>
+    <t>GESTIÓN ORGANIZACIONAL</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>CIT33XX</t>
+  </si>
+  <si>
+    <t>CIT34XX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3, 10, 13 , 17, 20, 26, 28, 29, 33, 36, 37, 38, 39, 40, 42, 43, 44, 45, 47, 48, 49, 50, 51, 52, 53 </t>
+  </si>
+  <si>
+    <t>INTERFACE HUMANO MÁQUINA</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1032,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1090,27 +1071,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1118,7 +1084,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1162,11 +1128,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1495,10 +1457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
-  <dimension ref="A2:J56"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,41 +1474,58 @@
     <col min="7" max="7" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="21">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="E3" s="21">
         <v>1</v>
@@ -1554,20 +1533,19 @@
       <c r="F3" s="12">
         <v>0</v>
       </c>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="E4" s="21">
         <v>1</v>
@@ -1575,20 +1553,19 @@
       <c r="F4" s="12">
         <v>0</v>
       </c>
-      <c r="G4" s="21"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>136</v>
+        <v>67</v>
+      </c>
+      <c r="D5" s="12">
+        <v>9</v>
       </c>
       <c r="E5" s="21">
         <v>1</v>
@@ -1596,20 +1573,19 @@
       <c r="F5" s="12">
         <v>0</v>
       </c>
-      <c r="G5" s="21"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="D6" s="12">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E6" s="21">
         <v>1</v>
@@ -1617,62 +1593,59 @@
       <c r="F6" s="12">
         <v>0</v>
       </c>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="12">
-        <v>38</v>
-      </c>
-      <c r="E7" s="21">
-        <v>1</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="22">
+        <v>2</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E8" s="22">
         <v>2</v>
       </c>
       <c r="F8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="E9" s="22">
         <v>2</v>
@@ -1680,146 +1653,139 @@
       <c r="F9" s="13">
         <v>2</v>
       </c>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="E10" s="22">
         <v>2</v>
       </c>
       <c r="F10" s="13">
-        <v>2</v>
-      </c>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="E11" s="22">
         <v>2</v>
       </c>
       <c r="F11" s="13">
-        <v>4</v>
-      </c>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="14">
+        <v>18</v>
+      </c>
+      <c r="E12" s="23">
+        <v>3</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="E12" s="22">
-        <v>2</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0</v>
-      </c>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="14">
-        <v>18</v>
+        <v>62</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="E13" s="23">
         <v>3</v>
       </c>
-      <c r="F13" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="23"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="E14" s="23">
         <v>3</v>
       </c>
-      <c r="F14" s="14">
-        <v>7</v>
-      </c>
-      <c r="G14" s="23"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>136</v>
+        <v>69</v>
+      </c>
+      <c r="D15" s="14">
+        <v>19</v>
       </c>
       <c r="E15" s="23">
         <v>3</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="23"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="14">
-        <v>19</v>
+        <v>75</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="E16" s="23">
         <v>3</v>
@@ -1827,670 +1793,600 @@
       <c r="F16" s="14">
         <v>9</v>
       </c>
-      <c r="G16" s="23" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="23">
-        <v>3</v>
-      </c>
-      <c r="F17" s="14">
-        <v>9</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>131</v>
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="24">
+        <v>4</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="E18" s="24">
         <v>4</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="24"/>
+        <v>91</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>136</v>
+        <v>56</v>
+      </c>
+      <c r="D19" s="15">
+        <v>23</v>
       </c>
       <c r="E19" s="24">
         <v>4</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="15">
-        <v>23</v>
+        <v>70</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="E20" s="24">
         <v>4</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" s="24"/>
+      <c r="F20" s="15">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="E21" s="24">
         <v>4</v>
       </c>
       <c r="F21" s="15">
-        <v>14</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>136</v>
+        <v>275</v>
+      </c>
+      <c r="D22" s="15">
+        <v>27</v>
       </c>
       <c r="E22" s="24">
         <v>4</v>
       </c>
       <c r="F22" s="15">
-        <v>0</v>
-      </c>
-      <c r="G22" s="24"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="D23" s="15">
-        <v>27</v>
-      </c>
-      <c r="E23" s="24">
-        <v>4</v>
-      </c>
-      <c r="F23" s="15">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="16">
+        <v>29</v>
+      </c>
+      <c r="E23" s="25">
         <v>5</v>
       </c>
-      <c r="G23" s="24" t="s">
-        <v>291</v>
+      <c r="F23" s="16" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="16">
-        <v>29</v>
+        <v>89</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>51</v>
       </c>
       <c r="E24" s="25">
         <v>5</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>118</v>
+      <c r="F24" s="33">
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>59</v>
+        <v>81</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>136</v>
       </c>
       <c r="E25" s="25">
         <v>5</v>
       </c>
-      <c r="F25" s="33">
-        <v>18</v>
-      </c>
-      <c r="G25" s="25"/>
+      <c r="F25" s="16" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="E26" s="25">
         <v>5</v>
       </c>
-      <c r="F26" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>128</v>
+      <c r="F26" s="16">
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="E27" s="25">
         <v>5</v>
       </c>
       <c r="F27" s="16">
-        <v>19</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>61</v>
+        <v>276</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>136</v>
+        <v>274</v>
       </c>
       <c r="E28" s="25">
         <v>5</v>
       </c>
       <c r="F28" s="16">
-        <v>0</v>
-      </c>
-      <c r="G28" s="25"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="E29" s="25">
-        <v>5</v>
-      </c>
-      <c r="F29" s="16">
-        <v>21</v>
-      </c>
-      <c r="G29" s="25"/>
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="26">
+        <v>6</v>
+      </c>
+      <c r="F29" s="17">
+        <v>12</v>
+      </c>
       <c r="J29" s="31"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E30" s="26">
         <v>6</v>
       </c>
-      <c r="F30" s="17">
-        <v>12</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>125</v>
+      <c r="F30" s="17" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E31" s="26">
         <v>6</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E32" s="26">
         <v>6</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E33" s="26">
         <v>6</v>
       </c>
-      <c r="F33" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>86</v>
+        <v>277</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="E34" s="26">
         <v>6</v>
       </c>
-      <c r="F34" s="17">
-        <v>23</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>33</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E35" s="26">
-        <v>6</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="G35" s="26"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="27">
+        <v>7</v>
+      </c>
+      <c r="F35" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="18">
-        <v>46</v>
+        <v>74</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>138</v>
       </c>
       <c r="E36" s="27">
         <v>7</v>
       </c>
-      <c r="F36" s="18">
-        <v>2</v>
-      </c>
-      <c r="G36" s="27"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F36" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>149</v>
+        <v>283</v>
       </c>
       <c r="E37" s="27">
         <v>7</v>
       </c>
-      <c r="F37" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F37" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="18">
-        <v>41</v>
+        <v>87</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>126</v>
       </c>
       <c r="E38" s="27">
         <v>7</v>
       </c>
       <c r="F38" s="18">
-        <v>30</v>
-      </c>
-      <c r="G38" s="27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E39" s="27">
         <v>7</v>
       </c>
       <c r="F39" s="18">
-        <v>0</v>
-      </c>
-      <c r="G39" s="27"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>38</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="E40" s="27">
-        <v>7</v>
-      </c>
-      <c r="F40" s="18">
         <v>32</v>
       </c>
-      <c r="G40" s="27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="28">
+        <v>8</v>
+      </c>
+      <c r="F40" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E41" s="28">
         <v>8</v>
       </c>
-      <c r="F41" s="19">
-        <v>5</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F41" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E42" s="28">
         <v>8</v>
       </c>
-      <c r="F42" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="G42" s="28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F42" s="19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E43" s="28">
         <v>8</v>
       </c>
-      <c r="F43" s="19">
-        <v>31</v>
-      </c>
-      <c r="G43" s="28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F43" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E44" s="28">
         <v>8</v>
       </c>
-      <c r="F44" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="G44" s="28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
-        <v>43</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E45" s="28">
-        <v>8</v>
-      </c>
-      <c r="F45" s="19">
+      <c r="F44" s="19">
         <v>0</v>
       </c>
-      <c r="G45" s="28"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="29">
+        <v>9</v>
+      </c>
+      <c r="F45" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>37</v>
+        <v>285</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E46" s="29">
         <v>9</v>
@@ -2498,20 +2394,19 @@
       <c r="F46" s="20">
         <v>0</v>
       </c>
-      <c r="G46" s="29"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E47" s="29">
         <v>9</v>
@@ -2519,200 +2414,166 @@
       <c r="F47" s="20">
         <v>0</v>
       </c>
-      <c r="G47" s="29"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E48" s="29">
         <v>9</v>
       </c>
-      <c r="F48" s="20">
-        <v>0</v>
-      </c>
-      <c r="G48" s="29"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F48" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>40</v>
+        <v>284</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E49" s="29">
         <v>9</v>
       </c>
-      <c r="F49" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="G49" s="29" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
-        <v>48</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" s="9" t="s">
+      <c r="F49" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>49</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D50" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="E50" s="29">
-        <v>9</v>
-      </c>
-      <c r="F50" s="20">
+      <c r="D50" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="30">
+        <v>10</v>
+      </c>
+      <c r="F50" s="34">
         <v>0</v>
       </c>
-      <c r="G50" s="29"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>42</v>
+        <v>285</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D51" s="34" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E51" s="30">
         <v>10</v>
       </c>
-      <c r="F51" s="34">
-        <v>0</v>
-      </c>
-      <c r="G51" s="30"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F51" s="34" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>43</v>
+        <v>285</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D52" s="34" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E52" s="30">
         <v>10</v>
       </c>
-      <c r="F52" s="34">
-        <v>0</v>
-      </c>
-      <c r="G52" s="30"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F52" s="34" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="D53" s="34" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E53" s="30">
         <v>10</v>
       </c>
-      <c r="F53" s="34">
-        <v>0</v>
-      </c>
-      <c r="G53" s="30"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F53" s="34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="D54" s="34" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E54" s="30">
         <v>10</v>
       </c>
       <c r="F54" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="G54" s="30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" s="34" t="s">
-        <v>136</v>
+        <v>100</v>
+      </c>
+      <c r="D55" s="34">
+        <v>0</v>
       </c>
       <c r="E55" s="30">
-        <v>10</v>
-      </c>
-      <c r="F55" s="34">
-        <v>0</v>
-      </c>
-      <c r="G55" s="30"/>
-    </row>
-    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A56" s="10">
-        <v>54</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D56" s="34">
-        <v>0</v>
-      </c>
-      <c r="E56" s="30">
         <v>11</v>
       </c>
-      <c r="F56" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="G56" s="30"/>
+      <c r="F55" s="36" t="s">
+        <v>286</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2724,36 +2585,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4014FB4E-F87C-4819-8121-E51678866905}">
   <dimension ref="A2:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F55"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="53.5703125" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2761,16 +2623,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="39">
+        <v>54</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>35</v>
-      </c>
-      <c r="E3" s="39">
-        <v>54</v>
       </c>
       <c r="F3" s="40"/>
     </row>
@@ -2779,16 +2641,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D4" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="39">
+        <v>54</v>
+      </c>
+      <c r="E4" s="38" t="s">
         <v>33</v>
-      </c>
-      <c r="E4" s="39">
-        <v>54</v>
       </c>
       <c r="F4" s="40"/>
     </row>
@@ -2797,19 +2659,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="39">
+        <v>54</v>
+      </c>
+      <c r="E5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="39">
-        <v>54</v>
-      </c>
       <c r="F5" s="40" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2817,16 +2679,16 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="39">
+        <v>54</v>
+      </c>
+      <c r="E6" s="38" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" s="39">
-        <v>54</v>
       </c>
       <c r="F6" s="40"/>
     </row>
@@ -2835,16 +2697,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D7" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="39">
+        <v>54</v>
+      </c>
+      <c r="E7" s="38" t="s">
         <v>35</v>
-      </c>
-      <c r="E7" s="39">
-        <v>54</v>
       </c>
       <c r="F7" s="40"/>
     </row>
@@ -2853,16 +2715,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="39">
+        <v>54</v>
+      </c>
+      <c r="E8" s="38" t="s">
         <v>28</v>
-      </c>
-      <c r="E8" s="39">
-        <v>54</v>
       </c>
       <c r="F8" s="40"/>
     </row>
@@ -2871,16 +2733,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9" s="39">
-        <v>54</v>
+        <v>159</v>
+      </c>
+      <c r="D9" s="39">
+        <v>54</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>160</v>
       </c>
       <c r="F9" s="40"/>
     </row>
@@ -2889,19 +2751,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E10" s="39">
-        <v>54</v>
+        <v>162</v>
+      </c>
+      <c r="D10" s="39">
+        <v>54</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>163</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2909,16 +2771,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E11" s="39">
-        <v>54</v>
+        <v>165</v>
+      </c>
+      <c r="D11" s="39">
+        <v>54</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>163</v>
       </c>
       <c r="F11" s="40"/>
     </row>
@@ -2927,19 +2789,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="E12" s="39">
-        <v>54</v>
+        <v>167</v>
+      </c>
+      <c r="D12" s="39">
+        <v>54</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>168</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2947,16 +2809,16 @@
         <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" s="39">
-        <v>54</v>
+        <v>170</v>
+      </c>
+      <c r="D13" s="39">
+        <v>54</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>171</v>
       </c>
       <c r="F13" s="40"/>
     </row>
@@ -2965,16 +2827,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>185</v>
-      </c>
-      <c r="E14" s="39">
-        <v>54</v>
+        <v>173</v>
+      </c>
+      <c r="D14" s="39">
+        <v>54</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>174</v>
       </c>
       <c r="F14" s="40"/>
     </row>
@@ -2983,16 +2845,16 @@
         <v>1</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="39">
+        <v>54</v>
+      </c>
+      <c r="E15" s="38" t="s">
         <v>21</v>
-      </c>
-      <c r="E15" s="39">
-        <v>54</v>
       </c>
       <c r="F15" s="40"/>
     </row>
@@ -3001,16 +2863,16 @@
         <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D16" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="39">
+        <v>54</v>
+      </c>
+      <c r="E16" s="38" t="s">
         <v>35</v>
-      </c>
-      <c r="E16" s="39">
-        <v>54</v>
       </c>
       <c r="F16" s="40"/>
     </row>
@@ -3019,16 +2881,16 @@
         <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D17" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="39">
+        <v>54</v>
+      </c>
+      <c r="E17" s="38" t="s">
         <v>35</v>
-      </c>
-      <c r="E17" s="39">
-        <v>54</v>
       </c>
       <c r="F17" s="40"/>
     </row>
@@ -3037,16 +2899,16 @@
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D18" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="39">
+        <v>54</v>
+      </c>
+      <c r="E18" s="38" t="s">
         <v>21</v>
-      </c>
-      <c r="E18" s="39">
-        <v>54</v>
       </c>
       <c r="F18" s="40"/>
     </row>
@@ -3055,15 +2917,15 @@
         <v>1</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D19" s="38"/>
-      <c r="E19" s="39">
-        <v>54</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D19" s="39">
+        <v>54</v>
+      </c>
+      <c r="E19" s="38"/>
       <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3071,16 +2933,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="E20" s="39">
-        <v>54</v>
+        <v>186</v>
+      </c>
+      <c r="D20" s="39">
+        <v>54</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>187</v>
       </c>
       <c r="F20" s="40"/>
     </row>
@@ -3089,16 +2951,16 @@
         <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="E21" s="39">
-        <v>54</v>
+        <v>189</v>
+      </c>
+      <c r="D21" s="39">
+        <v>54</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>187</v>
       </c>
       <c r="F21" s="40"/>
     </row>
@@ -3107,16 +2969,16 @@
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="E22" s="39">
-        <v>54</v>
+        <v>191</v>
+      </c>
+      <c r="D22" s="39">
+        <v>54</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>192</v>
       </c>
       <c r="F22" s="40"/>
     </row>
@@ -3125,16 +2987,16 @@
         <v>1</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D23" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="39">
+        <v>54</v>
+      </c>
+      <c r="E23" s="38" t="s">
         <v>17</v>
-      </c>
-      <c r="E23" s="39">
-        <v>54</v>
       </c>
       <c r="F23" s="40"/>
     </row>
@@ -3143,19 +3005,19 @@
         <v>1</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="E24" s="39">
-        <v>54</v>
+        <v>196</v>
+      </c>
+      <c r="D24" s="39">
+        <v>54</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>197</v>
       </c>
       <c r="F24" s="40" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3163,16 +3025,16 @@
         <v>1</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="E25" s="39">
-        <v>54</v>
+        <v>200</v>
+      </c>
+      <c r="D25" s="39">
+        <v>54</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>201</v>
       </c>
       <c r="F25" s="40"/>
     </row>
@@ -3181,16 +3043,16 @@
         <v>1</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="E26" s="39">
-        <v>54</v>
+        <v>287</v>
+      </c>
+      <c r="D26" s="39">
+        <v>54</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>203</v>
       </c>
       <c r="F26" s="40"/>
     </row>
@@ -3199,16 +3061,16 @@
         <v>1</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D27" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27" s="39">
+        <v>54</v>
+      </c>
+      <c r="E27" s="38" t="s">
         <v>35</v>
-      </c>
-      <c r="E27" s="39">
-        <v>54</v>
       </c>
       <c r="F27" s="40"/>
     </row>
@@ -3217,16 +3079,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="E28" s="39">
-        <v>54</v>
+        <v>207</v>
+      </c>
+      <c r="D28" s="39">
+        <v>54</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>208</v>
       </c>
       <c r="F28" s="40"/>
     </row>
@@ -3235,16 +3097,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="E29" s="39">
-        <v>54</v>
+        <v>210</v>
+      </c>
+      <c r="D29" s="39">
+        <v>54</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>211</v>
       </c>
       <c r="F29" s="40"/>
     </row>
@@ -3253,16 +3115,16 @@
         <v>1</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="D30" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" s="39">
+        <v>54</v>
+      </c>
+      <c r="E30" s="38" t="s">
         <v>28</v>
-      </c>
-      <c r="E30" s="39">
-        <v>54</v>
       </c>
       <c r="F30" s="40"/>
     </row>
@@ -3271,16 +3133,16 @@
         <v>1</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D31" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" s="39">
+        <v>54</v>
+      </c>
+      <c r="E31" s="38" t="s">
         <v>21</v>
-      </c>
-      <c r="E31" s="39">
-        <v>54</v>
       </c>
       <c r="F31" s="40"/>
     </row>
@@ -3289,16 +3151,16 @@
         <v>1</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="E32" s="39">
-        <v>54</v>
+        <v>217</v>
+      </c>
+      <c r="D32" s="39">
+        <v>54</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>208</v>
       </c>
       <c r="F32" s="40"/>
     </row>
@@ -3307,19 +3169,19 @@
         <v>1</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D33" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" s="39">
+        <v>54</v>
+      </c>
+      <c r="E33" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="39">
-        <v>54</v>
-      </c>
       <c r="F33" s="40" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3327,16 +3189,16 @@
         <v>1</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="E34" s="39">
-        <v>54</v>
+        <v>222</v>
+      </c>
+      <c r="D34" s="39">
+        <v>54</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>223</v>
       </c>
       <c r="F34" s="40"/>
     </row>
@@ -3345,16 +3207,16 @@
         <v>1</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D35" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="D35" s="39">
+        <v>54</v>
+      </c>
+      <c r="E35" s="38" t="s">
         <v>28</v>
-      </c>
-      <c r="E35" s="39">
-        <v>54</v>
       </c>
       <c r="F35" s="40"/>
     </row>
@@ -3363,16 +3225,16 @@
         <v>1</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D36" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" s="39">
+        <v>54</v>
+      </c>
+      <c r="E36" s="38" t="s">
         <v>28</v>
-      </c>
-      <c r="E36" s="39">
-        <v>54</v>
       </c>
       <c r="F36" s="40"/>
     </row>
@@ -3381,16 +3243,16 @@
         <v>1</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="E37" s="39">
-        <v>54</v>
+        <v>229</v>
+      </c>
+      <c r="D37" s="39">
+        <v>54</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>230</v>
       </c>
       <c r="F37" s="40"/>
     </row>
@@ -3399,16 +3261,16 @@
         <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="E38" s="39">
-        <v>54</v>
+        <v>232</v>
+      </c>
+      <c r="D38" s="39">
+        <v>54</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>233</v>
       </c>
       <c r="F38" s="40"/>
     </row>
@@ -3417,16 +3279,16 @@
         <v>2</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="E39" s="39">
-        <v>54</v>
+        <v>235</v>
+      </c>
+      <c r="D39" s="39">
+        <v>54</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>236</v>
       </c>
       <c r="F39" s="40"/>
     </row>
@@ -3435,16 +3297,16 @@
         <v>2</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D40" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="D40" s="39">
+        <v>54</v>
+      </c>
+      <c r="E40" s="38" t="s">
         <v>34</v>
-      </c>
-      <c r="E40" s="39">
-        <v>54</v>
       </c>
       <c r="F40" s="40"/>
     </row>
@@ -3453,16 +3315,16 @@
         <v>2</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>253</v>
-      </c>
-      <c r="E41" s="39">
-        <v>54</v>
+        <v>240</v>
+      </c>
+      <c r="D41" s="39">
+        <v>54</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>241</v>
       </c>
       <c r="F41" s="40"/>
     </row>
@@ -3471,16 +3333,16 @@
         <v>2</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="D42" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="D42" s="39">
+        <v>54</v>
+      </c>
+      <c r="E42" s="38" t="s">
         <v>29</v>
-      </c>
-      <c r="E42" s="39">
-        <v>54</v>
       </c>
       <c r="F42" s="40"/>
     </row>
@@ -3489,16 +3351,16 @@
         <v>2</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D43" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="D43" s="39">
+        <v>54</v>
+      </c>
+      <c r="E43" s="38" t="s">
         <v>35</v>
-      </c>
-      <c r="E43" s="39">
-        <v>54</v>
       </c>
       <c r="F43" s="40"/>
     </row>
@@ -3507,16 +3369,16 @@
         <v>2</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D44" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="D44" s="39">
+        <v>54</v>
+      </c>
+      <c r="E44" s="38" t="s">
         <v>29</v>
-      </c>
-      <c r="E44" s="39">
-        <v>54</v>
       </c>
       <c r="F44" s="40"/>
     </row>
@@ -3525,16 +3387,16 @@
         <v>2</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D45" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="D45" s="39">
+        <v>54</v>
+      </c>
+      <c r="E45" s="38" t="s">
         <v>34</v>
-      </c>
-      <c r="E45" s="39">
-        <v>54</v>
       </c>
       <c r="F45" s="40"/>
     </row>
@@ -3543,16 +3405,16 @@
         <v>2</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>248</v>
-      </c>
-      <c r="E46" s="39">
-        <v>54</v>
+        <v>251</v>
+      </c>
+      <c r="D46" s="39">
+        <v>54</v>
+      </c>
+      <c r="E46" s="38" t="s">
+        <v>236</v>
       </c>
       <c r="F46" s="40"/>
     </row>
@@ -3561,16 +3423,16 @@
         <v>2</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D47" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="E47" s="39">
-        <v>54</v>
+        <v>253</v>
+      </c>
+      <c r="D47" s="39">
+        <v>54</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>233</v>
       </c>
       <c r="F47" s="40"/>
     </row>
@@ -3579,16 +3441,16 @@
         <v>2</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="D48" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="D48" s="39">
+        <v>54</v>
+      </c>
+      <c r="E48" s="38" t="s">
         <v>29</v>
-      </c>
-      <c r="E48" s="39">
-        <v>54</v>
       </c>
       <c r="F48" s="40"/>
     </row>
@@ -3597,16 +3459,16 @@
         <v>2</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="D49" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="E49" s="39">
-        <v>54</v>
+        <v>257</v>
+      </c>
+      <c r="D49" s="39">
+        <v>54</v>
+      </c>
+      <c r="E49" s="38" t="s">
+        <v>258</v>
       </c>
       <c r="F49" s="40"/>
     </row>
@@ -3615,16 +3477,16 @@
         <v>2</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="E50" s="39">
-        <v>54</v>
+        <v>260</v>
+      </c>
+      <c r="D50" s="39">
+        <v>54</v>
+      </c>
+      <c r="E50" s="38" t="s">
+        <v>261</v>
       </c>
       <c r="F50" s="40"/>
     </row>
@@ -3633,16 +3495,16 @@
         <v>2</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D51" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="D51" s="39">
+        <v>54</v>
+      </c>
+      <c r="E51" s="38" t="s">
         <v>34</v>
-      </c>
-      <c r="E51" s="39">
-        <v>54</v>
       </c>
       <c r="F51" s="40"/>
     </row>
@@ -3651,16 +3513,16 @@
         <v>2</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D52" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="D52" s="39">
+        <v>54</v>
+      </c>
+      <c r="E52" s="38" t="s">
         <v>21</v>
-      </c>
-      <c r="E52" s="39">
-        <v>54</v>
       </c>
       <c r="F52" s="40"/>
     </row>
@@ -3669,16 +3531,16 @@
         <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D53" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="D53" s="39">
+        <v>54</v>
+      </c>
+      <c r="E53" s="38" t="s">
         <v>31</v>
-      </c>
-      <c r="E53" s="39">
-        <v>54</v>
       </c>
       <c r="F53" s="40"/>
     </row>
@@ -3687,19 +3549,19 @@
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="D54" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="D54" s="39">
+        <v>54</v>
+      </c>
+      <c r="E54" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E54" s="39">
-        <v>54</v>
-      </c>
       <c r="F54" s="40" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3707,16 +3569,16 @@
         <v>2</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D55" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="E55" s="39">
-        <v>54</v>
+        <v>272</v>
+      </c>
+      <c r="D55" s="39">
+        <v>54</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>273</v>
       </c>
       <c r="F55" s="40"/>
     </row>
@@ -3727,10 +3589,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D408C3EA-25FB-45D4-B6B7-42F43E06065D}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3742,98 +3604,194 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="B12" s="26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B15" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="B18" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="B20" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>294</v>
+      <c r="B22" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/RutaCritica/MallaCurricular2018.xlsx
+++ b/RutaCritica/MallaCurricular2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A3BD91-1921-44B5-B4B4-59CACE91E12D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79456953-78C4-4CC7-9FE5-C65801F6ABD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="4395" yWindow="180" windowWidth="18000" windowHeight="9810" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2018" sheetId="1" r:id="rId1"/>
@@ -1133,7 +1133,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Cálculo" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1161,7 +1161,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1459,11 +1459,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -2585,15 +2585,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4014FB4E-F87C-4819-8121-E51678866905}">
   <dimension ref="A2:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="53.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
   </cols>
@@ -2609,10 +2609,10 @@
         <v>141</v>
       </c>
       <c r="D2" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="37" t="s">
         <v>142</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>143</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>144</v>
@@ -3592,10 +3592,10 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.140625" customWidth="1"/>
     <col min="2" max="2" width="51.85546875" customWidth="1"/>

--- a/RutaCritica/MallaCurricular2018.xlsx
+++ b/RutaCritica/MallaCurricular2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79456953-78C4-4CC7-9FE5-C65801F6ABD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5274AC-24EB-468D-96AD-F6427F258F52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="180" windowWidth="18000" windowHeight="9810" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2018" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="287">
   <si>
     <t>CBM1000</t>
   </si>
@@ -584,12 +584,6 @@
   </si>
   <si>
     <t>ESTRATEGIAS DE PROGRAMACIÓN</t>
-  </si>
-  <si>
-    <t>CIT3334</t>
-  </si>
-  <si>
-    <t>ESTRUCTURAS DE DATOS COMPACTAS</t>
   </si>
   <si>
     <t>CIT3328</t>
@@ -1084,7 +1078,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1131,6 +1125,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Cálculo" xfId="1" builtinId="22"/>
@@ -1459,7 +1460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -1902,7 +1903,7 @@
         <v>114</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D22" s="15">
         <v>27</v>
@@ -2022,10 +2023,10 @@
         <v>125</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E28" s="25">
         <v>5</v>
@@ -2143,7 +2144,7 @@
         <v>124</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D34" s="17" t="s">
         <v>126</v>
@@ -2206,7 +2207,7 @@
         <v>77</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E37" s="27">
         <v>7</v>
@@ -2263,7 +2264,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D40" s="19" t="s">
         <v>126</v>
@@ -2360,7 +2361,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>36</v>
@@ -2380,7 +2381,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>36</v>
@@ -2400,7 +2401,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>36</v>
@@ -2440,7 +2441,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>36</v>
@@ -2460,7 +2461,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>36</v>
@@ -2480,7 +2481,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>36</v>
@@ -2492,7 +2493,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="34" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2500,7 +2501,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>36</v>
@@ -2512,7 +2513,7 @@
         <v>10</v>
       </c>
       <c r="F52" s="34" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2540,7 +2541,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>36</v>
@@ -2552,7 +2553,7 @@
         <v>10</v>
       </c>
       <c r="F54" s="34" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2572,7 +2573,7 @@
         <v>11</v>
       </c>
       <c r="F55" s="36" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2583,10 +2584,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4014FB4E-F87C-4819-8121-E51678866905}">
-  <dimension ref="A2:F55"/>
+  <dimension ref="A2:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2912,37 +2913,39 @@
       </c>
       <c r="F18" s="40"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>1</v>
-      </c>
-      <c r="B19" s="7" t="s">
+    <row r="19" spans="1:6" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="43">
+        <v>1</v>
+      </c>
+      <c r="B19" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="D19" s="39">
-        <v>54</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="40"/>
+      <c r="D19" s="46">
+        <v>54</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="F19" s="47"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>1</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="39">
+        <v>54</v>
+      </c>
+      <c r="E20" s="38" t="s">
         <v>185</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D20" s="39">
-        <v>54</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>187</v>
       </c>
       <c r="F20" s="40"/>
     </row>
@@ -2960,7 +2963,7 @@
         <v>54</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F21" s="40"/>
     </row>
@@ -2969,16 +2972,16 @@
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D22" s="39">
         <v>54</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="F22" s="40"/>
     </row>
@@ -2996,39 +2999,39 @@
         <v>54</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="40"/>
+        <v>195</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>1</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D24" s="39">
         <v>54</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>198</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="F24" s="40"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>1</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>200</v>
+        <v>285</v>
       </c>
       <c r="D25" s="39">
         <v>54</v>
@@ -3046,13 +3049,13 @@
         <v>202</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="D26" s="39">
         <v>54</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="F26" s="40"/>
     </row>
@@ -3070,7 +3073,7 @@
         <v>54</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>35</v>
+        <v>206</v>
       </c>
       <c r="F27" s="40"/>
     </row>
@@ -3079,16 +3082,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D28" s="39">
         <v>54</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F28" s="40"/>
     </row>
@@ -3097,16 +3100,16 @@
         <v>1</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D29" s="39">
         <v>54</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>211</v>
+        <v>28</v>
       </c>
       <c r="F29" s="40"/>
     </row>
@@ -3124,7 +3127,7 @@
         <v>54</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F30" s="40"/>
     </row>
@@ -3142,7 +3145,7 @@
         <v>54</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="F31" s="40"/>
     </row>
@@ -3160,45 +3163,45 @@
         <v>54</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>208</v>
-      </c>
-      <c r="F32" s="40"/>
+        <v>35</v>
+      </c>
+      <c r="F32" s="40" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>1</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D33" s="39">
         <v>54</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="40" t="s">
-        <v>220</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="F33" s="40"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>1</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D34" s="39">
         <v>54</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>223</v>
+        <v>28</v>
       </c>
       <c r="F34" s="40"/>
     </row>
@@ -3234,25 +3237,25 @@
         <v>54</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c r="F36" s="40"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D37" s="39">
         <v>54</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F37" s="40"/>
     </row>
@@ -3261,16 +3264,16 @@
         <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D38" s="39">
         <v>54</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F38" s="40"/>
     </row>
@@ -3279,16 +3282,16 @@
         <v>2</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D39" s="39">
         <v>54</v>
       </c>
       <c r="E39" s="38" t="s">
-        <v>236</v>
+        <v>34</v>
       </c>
       <c r="F39" s="40"/>
     </row>
@@ -3306,7 +3309,7 @@
         <v>54</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="F40" s="40"/>
     </row>
@@ -3315,16 +3318,16 @@
         <v>2</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D41" s="39">
         <v>54</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>241</v>
+        <v>29</v>
       </c>
       <c r="F41" s="40"/>
     </row>
@@ -3342,7 +3345,7 @@
         <v>54</v>
       </c>
       <c r="E42" s="38" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F42" s="40"/>
     </row>
@@ -3360,7 +3363,7 @@
         <v>54</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F43" s="40"/>
     </row>
@@ -3378,7 +3381,7 @@
         <v>54</v>
       </c>
       <c r="E44" s="38" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F44" s="40"/>
     </row>
@@ -3396,7 +3399,7 @@
         <v>54</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>34</v>
+        <v>234</v>
       </c>
       <c r="F45" s="40"/>
     </row>
@@ -3414,7 +3417,7 @@
         <v>54</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F46" s="40"/>
     </row>
@@ -3432,7 +3435,7 @@
         <v>54</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>233</v>
+        <v>29</v>
       </c>
       <c r="F47" s="40"/>
     </row>
@@ -3450,7 +3453,7 @@
         <v>54</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>29</v>
+        <v>256</v>
       </c>
       <c r="F48" s="40"/>
     </row>
@@ -3459,16 +3462,16 @@
         <v>2</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D49" s="39">
         <v>54</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F49" s="40"/>
     </row>
@@ -3477,16 +3480,16 @@
         <v>2</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D50" s="39">
         <v>54</v>
       </c>
       <c r="E50" s="38" t="s">
-        <v>261</v>
+        <v>34</v>
       </c>
       <c r="F50" s="40"/>
     </row>
@@ -3504,7 +3507,7 @@
         <v>54</v>
       </c>
       <c r="E51" s="38" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F51" s="40"/>
     </row>
@@ -3522,7 +3525,7 @@
         <v>54</v>
       </c>
       <c r="E52" s="38" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F52" s="40"/>
     </row>
@@ -3533,57 +3536,40 @@
       <c r="B53" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="41" t="s">
         <v>267</v>
       </c>
       <c r="D53" s="39">
         <v>54</v>
       </c>
       <c r="E53" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F53" s="40"/>
+        <v>29</v>
+      </c>
+      <c r="F53" s="40" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="C54" s="41" t="s">
         <v>269</v>
       </c>
+      <c r="C54" s="6" t="s">
+        <v>270</v>
+      </c>
       <c r="D54" s="39">
         <v>54</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="F54" s="40" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
-        <v>2</v>
-      </c>
-      <c r="B55" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D55" s="39">
-        <v>54</v>
-      </c>
-      <c r="E55" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="F55" s="40"/>
+      <c r="F54" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -3604,10 +3590,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3647,7 +3633,7 @@
         <v>114</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3679,7 +3665,7 @@
         <v>125</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">

--- a/RutaCritica/MallaCurricular2018.xlsx
+++ b/RutaCritica/MallaCurricular2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5274AC-24EB-468D-96AD-F6427F258F52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEBF29D-3F40-432F-973D-1C81204F5BCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2018" sheetId="1" r:id="rId1"/>
@@ -1134,7 +1134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Cálculo" xfId="1" builtinId="22"/>
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1162,7 +1162,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1460,11 +1460,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -2586,11 +2586,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4014FB4E-F87C-4819-8121-E51678866905}">
   <dimension ref="A2:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="53.5703125" customWidth="1"/>
@@ -3577,11 +3577,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D408C3EA-25FB-45D4-B6B7-42F43E06065D}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.140625" customWidth="1"/>
     <col min="2" max="2" width="51.85546875" customWidth="1"/>
@@ -3638,7 +3638,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>108</v>

--- a/RutaCritica/MallaCurricular2018.xlsx
+++ b/RutaCritica/MallaCurricular2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEBF29D-3F40-432F-973D-1C81204F5BCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00814580-7EAE-40D0-B083-F671281EF09E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2018" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="310">
   <si>
     <t>CBM1000</t>
   </si>
@@ -145,9 +145,6 @@
     <t>CIT2201</t>
   </si>
   <si>
-    <t>Electivo Profesional</t>
-  </si>
-  <si>
     <t>CIT3200</t>
   </si>
   <si>
@@ -196,9 +193,6 @@
     <t>31, 35</t>
   </si>
   <si>
-    <t>CFG</t>
-  </si>
-  <si>
     <t>MECÁNICA</t>
   </si>
   <si>
@@ -421,15 +415,6 @@
     <t>52</t>
   </si>
   <si>
-    <t>34, 42</t>
-  </si>
-  <si>
-    <t>24, 35, 36</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>47</t>
   </si>
   <si>
@@ -883,19 +868,103 @@
     <t>42</t>
   </si>
   <si>
-    <t>CIT33XX</t>
-  </si>
-  <si>
-    <t>CIT34XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3, 10, 13 , 17, 20, 26, 28, 29, 33, 36, 37, 38, 39, 40, 42, 43, 44, 45, 47, 48, 49, 50, 51, 52, 53 </t>
-  </si>
-  <si>
     <t>INTERFACE HUMANO MÁQUINA</t>
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>24, 34, 35</t>
+  </si>
+  <si>
+    <t>33, 41</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>3, 10, 13 , 17, 20, 26, 28, 29, 53, 36, 37, 38, 39, 40, 42, 43, 44, 45, 47, 48, 49, 50, 51, 52</t>
+  </si>
+  <si>
+    <t>CIT5001</t>
+  </si>
+  <si>
+    <t>CIT3310</t>
+  </si>
+  <si>
+    <t>CIT3410</t>
+  </si>
+  <si>
+    <t>CIT3411</t>
+  </si>
+  <si>
+    <t>CIT3311</t>
+  </si>
+  <si>
+    <t>CIT3312</t>
+  </si>
+  <si>
+    <t>CIT3412</t>
+  </si>
+  <si>
+    <t>CIT3413</t>
+  </si>
+  <si>
+    <t>CIT3313</t>
+  </si>
+  <si>
+    <t>CIT5002</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL INF 1</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL TEL 1</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL TEL 2</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL INF 2</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL INF 3</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL TEL 3</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL TEL 4</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL INF 4</t>
+  </si>
+  <si>
+    <t>PRÁCTICA PROFESIONAL 1</t>
+  </si>
+  <si>
+    <t>PRÁCTICA PROFESIONAL 2</t>
+  </si>
+  <si>
+    <t>3, 5, 10, 13, 15, 16, 17, 18, 19, 20, 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54, 26, 28, 29, 53, 33, 36, 37, 38, 39, 40, 41, 42  </t>
+  </si>
+  <si>
+    <t>CFG-1</t>
+  </si>
+  <si>
+    <t>CFG-2</t>
+  </si>
+  <si>
+    <t>CFG-3</t>
+  </si>
+  <si>
+    <t>CFG-4</t>
   </si>
 </sst>
 </file>
@@ -935,7 +1004,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1025,6 +1094,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1078,7 +1153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1132,9 +1207,51 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Cálculo" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1162,7 +1279,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1458,41 +1575,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="4" max="4" width="27" style="64" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="35" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>43</v>
+      <c r="D1" s="52" t="s">
+        <v>101</v>
       </c>
       <c r="E1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>103</v>
+      <c r="F1" s="32" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1503,16 +1620,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="21">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12">
+        <v>55</v>
+      </c>
+      <c r="D2" s="53">
         <v>0</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1523,16 +1640,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="21">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12">
+        <v>56</v>
+      </c>
+      <c r="D3" s="53">
         <v>0</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1543,16 +1660,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="21">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12">
+        <v>62</v>
+      </c>
+      <c r="D4" s="53">
         <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1563,16 +1680,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="12">
+        <v>65</v>
+      </c>
+      <c r="D5" s="53">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
         <v>9</v>
       </c>
-      <c r="E5" s="21">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0</v>
+      <c r="F5" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1583,16 +1700,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="12">
+        <v>84</v>
+      </c>
+      <c r="D6" s="53">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
         <v>38</v>
       </c>
-      <c r="E6" s="21">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0</v>
+      <c r="F6" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1603,16 +1720,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="22">
+        <v>57</v>
+      </c>
+      <c r="D7" s="54">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="22">
         <v>2</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1623,15 +1740,15 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="22">
+        <v>58</v>
+      </c>
+      <c r="D8" s="54">
         <v>2</v>
       </c>
-      <c r="F8" s="13">
+      <c r="E8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="22">
         <v>2</v>
       </c>
     </row>
@@ -1643,15 +1760,15 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="22">
+        <v>52</v>
+      </c>
+      <c r="D9" s="54">
         <v>2</v>
       </c>
-      <c r="F9" s="13">
+      <c r="E9" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="22">
         <v>2</v>
       </c>
     </row>
@@ -1663,16 +1780,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="22">
+        <v>66</v>
+      </c>
+      <c r="D10" s="54">
+        <v>4</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="22">
         <v>2</v>
-      </c>
-      <c r="F10" s="13">
-        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1680,19 +1797,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>306</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="22">
+        <v>306</v>
+      </c>
+      <c r="D11" s="54">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="22">
         <v>2</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1703,16 +1820,16 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="14">
+        <v>59</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="14">
         <v>18</v>
       </c>
-      <c r="E12" s="23">
+      <c r="F12" s="23">
         <v>3</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1723,16 +1840,16 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="23">
+        <v>60</v>
+      </c>
+      <c r="D13" s="55">
+        <v>7</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="23">
         <v>3</v>
-      </c>
-      <c r="F13" s="14">
-        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1743,16 +1860,16 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="23">
+        <v>53</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="23">
         <v>3</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1763,16 +1880,16 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="14">
+        <v>67</v>
+      </c>
+      <c r="D15" s="55">
+        <v>9</v>
+      </c>
+      <c r="E15" s="14">
         <v>19</v>
       </c>
-      <c r="E15" s="23">
+      <c r="F15" s="23">
         <v>3</v>
-      </c>
-      <c r="F15" s="14">
-        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1783,16 +1900,16 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="23">
+        <v>73</v>
+      </c>
+      <c r="D16" s="55">
+        <v>9</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="23">
         <v>3</v>
-      </c>
-      <c r="F16" s="14">
-        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1803,16 +1920,16 @@
         <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="24">
+        <v>86</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="24">
         <v>4</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1823,16 +1940,16 @@
         <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" s="24">
+        <v>61</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="24">
         <v>4</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1843,16 +1960,16 @@
         <v>16</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="15">
+        <v>54</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="15">
         <v>23</v>
       </c>
-      <c r="E19" s="24">
+      <c r="F19" s="24">
         <v>4</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1863,16 +1980,16 @@
         <v>17</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="24">
+        <v>68</v>
+      </c>
+      <c r="D20" s="56">
+        <v>14</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="24">
         <v>4</v>
-      </c>
-      <c r="F20" s="15">
-        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1880,19 +1997,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>53</v>
+        <v>307</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="24">
+        <v>307</v>
+      </c>
+      <c r="D21" s="56">
+        <v>0</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="24">
         <v>4</v>
-      </c>
-      <c r="F21" s="15">
-        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1900,19 +2017,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D22" s="15">
+        <v>268</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>278</v>
+      </c>
+      <c r="E22" s="15">
         <v>27</v>
       </c>
-      <c r="E22" s="24">
+      <c r="F22" s="24">
         <v>4</v>
-      </c>
-      <c r="F22" s="15">
-        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1923,16 +2040,16 @@
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="16">
+        <v>64</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="16">
         <v>29</v>
       </c>
-      <c r="E23" s="25">
+      <c r="F23" s="25">
         <v>5</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1943,16 +2060,16 @@
         <v>19</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="25">
+        <v>87</v>
+      </c>
+      <c r="D24" s="58">
+        <v>18</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="25">
         <v>5</v>
-      </c>
-      <c r="F24" s="33">
-        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1963,16 +2080,16 @@
         <v>20</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" s="25">
+        <v>79</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="25">
         <v>5</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1983,16 +2100,16 @@
         <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="25">
+        <v>69</v>
+      </c>
+      <c r="D26" s="57">
+        <v>19</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="25">
         <v>5</v>
-      </c>
-      <c r="F26" s="16">
-        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2000,19 +2117,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>53</v>
+        <v>308</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27" s="25">
+        <v>308</v>
+      </c>
+      <c r="D27" s="57">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="25">
         <v>5</v>
-      </c>
-      <c r="F27" s="16">
-        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2020,19 +2137,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="E28" s="25">
+        <v>269</v>
+      </c>
+      <c r="D28" s="57">
+        <v>21</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="F28" s="25">
         <v>5</v>
-      </c>
-      <c r="F28" s="16">
-        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2043,16 +2160,16 @@
         <v>22</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" s="26">
+        <v>88</v>
+      </c>
+      <c r="D29" s="59">
+        <v>12</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="26">
         <v>6</v>
-      </c>
-      <c r="F29" s="17">
-        <v>12</v>
       </c>
       <c r="J29" s="31"/>
     </row>
@@ -2064,16 +2181,16 @@
         <v>23</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="26">
+        <v>81</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="26">
         <v>6</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2084,16 +2201,16 @@
         <v>24</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E31" s="26">
+        <v>74</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="26">
         <v>6</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2104,16 +2221,16 @@
         <v>25</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" s="26">
+        <v>70</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="26">
         <v>6</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2124,456 +2241,488 @@
         <v>26</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E33" s="26">
+        <v>76</v>
+      </c>
+      <c r="D33" s="59">
+        <v>23</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="26">
         <v>6</v>
       </c>
-      <c r="F33" s="17">
-        <v>23</v>
-      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>33</v>
+      <c r="A34" s="1">
+        <v>53</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D34" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E34" s="26">
+      <c r="F34" s="26">
         <v>6</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="27">
+        <v>63</v>
+      </c>
+      <c r="D35" s="60">
+        <v>2</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="27">
         <v>7</v>
-      </c>
-      <c r="F35" s="18">
-        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E36" s="27">
+        <v>72</v>
+      </c>
+      <c r="D36" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="27">
         <v>7</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="E37" s="27">
+        <v>75</v>
+      </c>
+      <c r="D37" s="60">
+        <v>30</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="F37" s="27">
         <v>7</v>
-      </c>
-      <c r="F37" s="18">
-        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E38" s="27">
+        <v>85</v>
+      </c>
+      <c r="D38" s="60">
+        <v>0</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" s="27">
         <v>7</v>
-      </c>
-      <c r="F38" s="18">
-        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E39" s="27">
+        <v>77</v>
+      </c>
+      <c r="D39" s="60">
+        <v>32</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="27">
         <v>7</v>
-      </c>
-      <c r="F39" s="18">
-        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="28">
+        <v>275</v>
+      </c>
+      <c r="D40" s="61">
+        <v>5</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="28">
         <v>8</v>
-      </c>
-      <c r="F40" s="19">
-        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E41" s="28">
+        <v>71</v>
+      </c>
+      <c r="D41" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F41" s="28">
         <v>8</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E42" s="28">
+        <v>78</v>
+      </c>
+      <c r="D42" s="61">
+        <v>31</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" s="28">
         <v>8</v>
-      </c>
-      <c r="F42" s="19">
-        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E43" s="28">
+        <v>80</v>
+      </c>
+      <c r="D43" s="61" t="s">
+        <v>280</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="28">
         <v>8</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>53</v>
+        <v>309</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" s="28">
+        <v>309</v>
+      </c>
+      <c r="D44" s="61">
+        <v>0</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44" s="28">
         <v>8</v>
-      </c>
-      <c r="F44" s="19">
-        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45" s="29">
+        <v>294</v>
+      </c>
+      <c r="D45" s="62">
+        <v>0</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="29">
         <v>9</v>
-      </c>
-      <c r="F45" s="20">
-        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E46" s="29">
+        <v>295</v>
+      </c>
+      <c r="D46" s="62">
+        <v>0</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" s="29">
         <v>9</v>
-      </c>
-      <c r="F46" s="20">
-        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E47" s="29">
+        <v>296</v>
+      </c>
+      <c r="D47" s="62">
+        <v>0</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" s="29">
         <v>9</v>
-      </c>
-      <c r="F47" s="20">
-        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E48" s="29">
+        <v>82</v>
+      </c>
+      <c r="D48" s="62" t="s">
+        <v>281</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48" s="29">
         <v>9</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E49" s="29">
+        <v>297</v>
+      </c>
+      <c r="D49" s="62">
+        <v>0</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49" s="29">
         <v>9</v>
-      </c>
-      <c r="F49" s="20">
-        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="E50" s="30">
+        <v>298</v>
+      </c>
+      <c r="D50" s="36">
+        <v>0</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" s="30">
         <v>10</v>
-      </c>
-      <c r="F50" s="34">
-        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="E51" s="30">
+        <v>299</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F51" s="30">
         <v>10</v>
-      </c>
-      <c r="F51" s="34" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="E52" s="30">
+        <v>300</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F52" s="30">
         <v>10</v>
-      </c>
-      <c r="F52" s="34" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D53" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="E53" s="30">
+        <v>83</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F53" s="30">
         <v>10</v>
-      </c>
-      <c r="F53" s="34" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="E54" s="30">
+        <v>301</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="E54" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" s="30">
         <v>10</v>
       </c>
-      <c r="F54" s="34" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
-        <v>54</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" s="34">
+    </row>
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="49">
+        <v>54</v>
+      </c>
+      <c r="B55" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="C55" s="49" t="s">
+        <v>302</v>
+      </c>
+      <c r="D55" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="E55" s="50"/>
+      <c r="F55" s="51"/>
+    </row>
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="49">
+        <v>55</v>
+      </c>
+      <c r="B56" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="C56" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="D56" s="63" t="s">
+        <v>305</v>
+      </c>
+      <c r="E56" s="50"/>
+      <c r="F56" s="51"/>
+    </row>
+    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>99</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="E57" s="34">
         <v>0</v>
       </c>
-      <c r="E55" s="30">
+      <c r="F57" s="30">
         <v>11</v>
-      </c>
-      <c r="F55" s="36" t="s">
-        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2590,7 +2739,7 @@
       <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="53.5703125" customWidth="1"/>
@@ -2601,22 +2750,22 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="37" t="s">
         <v>139</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2624,10 +2773,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D3" s="39">
         <v>54</v>
@@ -2642,10 +2791,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D4" s="39">
         <v>54</v>
@@ -2660,10 +2809,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D5" s="39">
         <v>54</v>
@@ -2672,7 +2821,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2680,10 +2829,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D6" s="39">
         <v>54</v>
@@ -2698,10 +2847,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D7" s="39">
         <v>54</v>
@@ -2716,10 +2865,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D8" s="39">
         <v>54</v>
@@ -2734,16 +2883,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D9" s="39">
         <v>54</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F9" s="40"/>
     </row>
@@ -2752,19 +2901,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D10" s="39">
         <v>54</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2772,16 +2921,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D11" s="39">
         <v>54</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F11" s="40"/>
     </row>
@@ -2790,19 +2939,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D12" s="39">
         <v>54</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2810,16 +2959,16 @@
         <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D13" s="39">
         <v>54</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F13" s="40"/>
     </row>
@@ -2828,16 +2977,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D14" s="39">
         <v>54</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F14" s="40"/>
     </row>
@@ -2846,10 +2995,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D15" s="39">
         <v>54</v>
@@ -2864,10 +3013,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D16" s="39">
         <v>54</v>
@@ -2882,10 +3031,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D17" s="39">
         <v>54</v>
@@ -2900,10 +3049,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D18" s="39">
         <v>54</v>
@@ -2918,16 +3067,16 @@
         <v>1</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D19" s="46">
         <v>54</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F19" s="47"/>
     </row>
@@ -2936,16 +3085,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D20" s="39">
         <v>54</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F20" s="40"/>
     </row>
@@ -2954,16 +3103,16 @@
         <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D21" s="39">
         <v>54</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F21" s="40"/>
     </row>
@@ -2972,10 +3121,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D22" s="39">
         <v>54</v>
@@ -2990,19 +3139,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D23" s="39">
         <v>54</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3010,16 +3159,16 @@
         <v>1</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D24" s="39">
         <v>54</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F24" s="40"/>
     </row>
@@ -3028,16 +3177,16 @@
         <v>1</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D25" s="39">
         <v>54</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F25" s="40"/>
     </row>
@@ -3046,10 +3195,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D26" s="39">
         <v>54</v>
@@ -3064,16 +3213,16 @@
         <v>1</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D27" s="39">
         <v>54</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F27" s="40"/>
     </row>
@@ -3082,16 +3231,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D28" s="39">
         <v>54</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F28" s="40"/>
     </row>
@@ -3100,10 +3249,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D29" s="39">
         <v>54</v>
@@ -3118,10 +3267,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D30" s="39">
         <v>54</v>
@@ -3136,16 +3285,16 @@
         <v>1</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D31" s="39">
         <v>54</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F31" s="40"/>
     </row>
@@ -3154,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D32" s="39">
         <v>54</v>
@@ -3166,7 +3315,7 @@
         <v>35</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3174,16 +3323,16 @@
         <v>1</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D33" s="39">
         <v>54</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F33" s="40"/>
     </row>
@@ -3192,10 +3341,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D34" s="39">
         <v>54</v>
@@ -3210,10 +3359,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D35" s="39">
         <v>54</v>
@@ -3228,16 +3377,16 @@
         <v>1</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D36" s="39">
         <v>54</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F36" s="40"/>
     </row>
@@ -3246,16 +3395,16 @@
         <v>2</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D37" s="39">
         <v>54</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F37" s="40"/>
     </row>
@@ -3264,16 +3413,16 @@
         <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D38" s="39">
         <v>54</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F38" s="40"/>
     </row>
@@ -3282,10 +3431,10 @@
         <v>2</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D39" s="39">
         <v>54</v>
@@ -3300,16 +3449,16 @@
         <v>2</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D40" s="39">
         <v>54</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F40" s="40"/>
     </row>
@@ -3318,10 +3467,10 @@
         <v>2</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D41" s="39">
         <v>54</v>
@@ -3336,10 +3485,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D42" s="39">
         <v>54</v>
@@ -3354,10 +3503,10 @@
         <v>2</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D43" s="39">
         <v>54</v>
@@ -3372,10 +3521,10 @@
         <v>2</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D44" s="39">
         <v>54</v>
@@ -3390,16 +3539,16 @@
         <v>2</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D45" s="39">
         <v>54</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F45" s="40"/>
     </row>
@@ -3408,16 +3557,16 @@
         <v>2</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D46" s="39">
         <v>54</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F46" s="40"/>
     </row>
@@ -3426,10 +3575,10 @@
         <v>2</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D47" s="39">
         <v>54</v>
@@ -3444,16 +3593,16 @@
         <v>2</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D48" s="39">
         <v>54</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F48" s="40"/>
     </row>
@@ -3462,16 +3611,16 @@
         <v>2</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D49" s="39">
         <v>54</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F49" s="40"/>
     </row>
@@ -3480,10 +3629,10 @@
         <v>2</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D50" s="39">
         <v>54</v>
@@ -3498,10 +3647,10 @@
         <v>2</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D51" s="39">
         <v>54</v>
@@ -3516,10 +3665,10 @@
         <v>2</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D52" s="39">
         <v>54</v>
@@ -3534,10 +3683,10 @@
         <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D53" s="39">
         <v>54</v>
@@ -3546,7 +3695,7 @@
         <v>29</v>
       </c>
       <c r="F53" s="40" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3554,16 +3703,16 @@
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D54" s="39">
         <v>54</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F54" s="40"/>
     </row>
@@ -3577,11 +3726,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D408C3EA-25FB-45D4-B6B7-42F43E06065D}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.140625" customWidth="1"/>
     <col min="2" max="2" width="51.85546875" customWidth="1"/>
@@ -3590,10 +3739,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3601,7 +3750,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3609,7 +3758,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3617,7 +3766,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3625,15 +3774,15 @@
         <v>17</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3641,7 +3790,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3649,7 +3798,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3657,15 +3806,15 @@
         <v>21</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3673,7 +3822,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3681,7 +3830,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3689,7 +3838,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3697,7 +3846,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3705,7 +3854,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3713,7 +3862,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3721,7 +3870,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3729,7 +3878,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3737,7 +3886,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3745,7 +3894,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3753,7 +3902,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3761,23 +3910,23 @@
         <v>35</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/RutaCritica/MallaCurricular2018.xlsx
+++ b/RutaCritica/MallaCurricular2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00814580-7EAE-40D0-B083-F671281EF09E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51793DAC-2A3B-448E-A6FD-AB60673E00C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2018" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="309">
   <si>
     <t>CBM1000</t>
   </si>
@@ -685,9 +685,6 @@
     <t>TALLER DE TRANSFORMACIÓN DIGITAL</t>
   </si>
   <si>
-    <t>CIT2005, CIT3100</t>
-  </si>
-  <si>
     <t>CIT3339</t>
   </si>
   <si>
@@ -886,9 +883,6 @@
     <t>46</t>
   </si>
   <si>
-    <t>3, 10, 13 , 17, 20, 26, 28, 29, 53, 36, 37, 38, 39, 40, 42, 43, 44, 45, 47, 48, 49, 50, 51, 52</t>
-  </si>
-  <si>
     <t>CIT5001</t>
   </si>
   <si>
@@ -949,22 +943,25 @@
     <t>PRÁCTICA PROFESIONAL 2</t>
   </si>
   <si>
+    <t>CFG-1</t>
+  </si>
+  <si>
+    <t>CFG-2</t>
+  </si>
+  <si>
+    <t>CFG-3</t>
+  </si>
+  <si>
+    <t>CFG-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54, 26, 28, 29, 53, 33, 36, 37, 38, 39, 40, 41, 42 </t>
+  </si>
+  <si>
     <t>3, 5, 10, 13, 15, 16, 17, 18, 19, 20, 21</t>
   </si>
   <si>
-    <t xml:space="preserve">54, 26, 28, 29, 53, 33, 36, 37, 38, 39, 40, 41, 42  </t>
-  </si>
-  <si>
-    <t>CFG-1</t>
-  </si>
-  <si>
-    <t>CFG-2</t>
-  </si>
-  <si>
-    <t>CFG-3</t>
-  </si>
-  <si>
-    <t>CFG-4</t>
+    <t>3, 10, 13 , 17, 20, 26, 28, 29, 53, 36, 37, 38, 39, 40, 42, 43, 44, 45, 47, 48, 49, 50, 51, 52, 54, 55</t>
   </si>
 </sst>
 </file>
@@ -1577,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,10 +1794,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D11" s="54">
         <v>0</v>
@@ -1997,10 +1994,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D21" s="56">
         <v>0</v>
@@ -2020,10 +2017,10 @@
         <v>112</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E22" s="15">
         <v>27</v>
@@ -2117,10 +2114,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D27" s="57">
         <v>0</v>
@@ -2140,13 +2137,13 @@
         <v>123</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D28" s="57">
         <v>21</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F28" s="25">
         <v>5</v>
@@ -2261,7 +2258,7 @@
         <v>122</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D34" s="59" t="s">
         <v>127</v>
@@ -2327,7 +2324,7 @@
         <v>30</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F37" s="27">
         <v>7</v>
@@ -2381,7 +2378,7 @@
         <v>32</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D40" s="61">
         <v>5</v>
@@ -2404,7 +2401,7 @@
         <v>71</v>
       </c>
       <c r="D41" s="61" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>124</v>
@@ -2444,7 +2441,7 @@
         <v>80</v>
       </c>
       <c r="D43" s="61" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E43" s="19" t="s">
         <v>126</v>
@@ -2458,10 +2455,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D44" s="61">
         <v>0</v>
@@ -2478,10 +2475,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D45" s="62">
         <v>0</v>
@@ -2498,10 +2495,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D46" s="62">
         <v>0</v>
@@ -2518,10 +2515,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D47" s="62">
         <v>0</v>
@@ -2544,7 +2541,7 @@
         <v>82</v>
       </c>
       <c r="D48" s="62" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>125</v>
@@ -2558,10 +2555,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D49" s="62">
         <v>0</v>
@@ -2578,10 +2575,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D50" s="36">
         <v>0</v>
@@ -2598,13 +2595,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D51" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E51" s="34" t="s">
         <v>124</v>
@@ -2618,13 +2615,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D52" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E52" s="34" t="s">
         <v>124</v>
@@ -2644,7 +2641,7 @@
         <v>83</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E53" s="34" t="s">
         <v>124</v>
@@ -2658,13 +2655,13 @@
         <v>52</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E54" s="34" t="s">
         <v>124</v>
@@ -2678,13 +2675,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="49" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C55" s="49" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D55" s="63" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E55" s="50"/>
       <c r="F55" s="51"/>
@@ -2694,18 +2691,18 @@
         <v>55</v>
       </c>
       <c r="B56" s="49" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C56" s="49" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D56" s="63" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E56" s="50"/>
       <c r="F56" s="51"/>
     </row>
-    <row r="57" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>99</v>
       </c>
@@ -2716,7 +2713,7 @@
         <v>98</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="E57" s="34">
         <v>0</v>
@@ -2735,8 +2732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4014FB4E-F87C-4819-8121-E51678866905}">
   <dimension ref="A2:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3180,7 +3177,7 @@
         <v>195</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D25" s="39">
         <v>54</v>
@@ -3332,7 +3329,7 @@
         <v>54</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>216</v>
+        <v>28</v>
       </c>
       <c r="F33" s="40"/>
     </row>
@@ -3341,10 +3338,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="D34" s="39">
         <v>54</v>
@@ -3359,10 +3356,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="D35" s="39">
         <v>54</v>
@@ -3377,16 +3374,16 @@
         <v>1</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="39">
+        <v>54</v>
+      </c>
+      <c r="E36" s="38" t="s">
         <v>222</v>
-      </c>
-      <c r="D36" s="39">
-        <v>54</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>223</v>
       </c>
       <c r="F36" s="40"/>
     </row>
@@ -3395,16 +3392,16 @@
         <v>2</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="39">
+        <v>54</v>
+      </c>
+      <c r="E37" s="38" t="s">
         <v>225</v>
-      </c>
-      <c r="D37" s="39">
-        <v>54</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>226</v>
       </c>
       <c r="F37" s="40"/>
     </row>
@@ -3413,16 +3410,16 @@
         <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="39">
+        <v>54</v>
+      </c>
+      <c r="E38" s="38" t="s">
         <v>228</v>
-      </c>
-      <c r="D38" s="39">
-        <v>54</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>229</v>
       </c>
       <c r="F38" s="40"/>
     </row>
@@ -3431,10 +3428,10 @@
         <v>2</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>231</v>
       </c>
       <c r="D39" s="39">
         <v>54</v>
@@ -3449,16 +3446,16 @@
         <v>2</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="39">
+        <v>54</v>
+      </c>
+      <c r="E40" s="38" t="s">
         <v>233</v>
-      </c>
-      <c r="D40" s="39">
-        <v>54</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>234</v>
       </c>
       <c r="F40" s="40"/>
     </row>
@@ -3467,10 +3464,10 @@
         <v>2</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="D41" s="39">
         <v>54</v>
@@ -3485,10 +3482,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>238</v>
       </c>
       <c r="D42" s="39">
         <v>54</v>
@@ -3503,10 +3500,10 @@
         <v>2</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="D43" s="39">
         <v>54</v>
@@ -3521,10 +3518,10 @@
         <v>2</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>241</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>242</v>
       </c>
       <c r="D44" s="39">
         <v>54</v>
@@ -3539,16 +3536,16 @@
         <v>2</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>244</v>
-      </c>
       <c r="D45" s="39">
         <v>54</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F45" s="40"/>
     </row>
@@ -3557,16 +3554,16 @@
         <v>2</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>246</v>
-      </c>
       <c r="D46" s="39">
         <v>54</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F46" s="40"/>
     </row>
@@ -3575,10 +3572,10 @@
         <v>2</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>248</v>
       </c>
       <c r="D47" s="39">
         <v>54</v>
@@ -3593,16 +3590,16 @@
         <v>2</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="D48" s="39">
+        <v>54</v>
+      </c>
+      <c r="E48" s="38" t="s">
         <v>250</v>
-      </c>
-      <c r="D48" s="39">
-        <v>54</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>251</v>
       </c>
       <c r="F48" s="40"/>
     </row>
@@ -3611,16 +3608,16 @@
         <v>2</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="D49" s="39">
+        <v>54</v>
+      </c>
+      <c r="E49" s="38" t="s">
         <v>253</v>
-      </c>
-      <c r="D49" s="39">
-        <v>54</v>
-      </c>
-      <c r="E49" s="38" t="s">
-        <v>254</v>
       </c>
       <c r="F49" s="40"/>
     </row>
@@ -3629,10 +3626,10 @@
         <v>2</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>256</v>
       </c>
       <c r="D50" s="39">
         <v>54</v>
@@ -3647,10 +3644,10 @@
         <v>2</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>257</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>258</v>
       </c>
       <c r="D51" s="39">
         <v>54</v>
@@ -3665,10 +3662,10 @@
         <v>2</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>260</v>
       </c>
       <c r="D52" s="39">
         <v>54</v>
@@ -3683,10 +3680,10 @@
         <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C53" s="41" t="s">
         <v>261</v>
-      </c>
-      <c r="C53" s="41" t="s">
-        <v>262</v>
       </c>
       <c r="D53" s="39">
         <v>54</v>
@@ -3695,7 +3692,7 @@
         <v>29</v>
       </c>
       <c r="F53" s="40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3703,16 +3700,16 @@
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="D54" s="39">
+        <v>54</v>
+      </c>
+      <c r="E54" s="38" t="s">
         <v>265</v>
-      </c>
-      <c r="D54" s="39">
-        <v>54</v>
-      </c>
-      <c r="E54" s="38" t="s">
-        <v>266</v>
       </c>
       <c r="F54" s="40"/>
     </row>
@@ -3739,10 +3736,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3782,7 +3779,7 @@
         <v>112</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3814,7 +3811,7 @@
         <v>123</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">

--- a/RutaCritica/MallaCurricular2018.xlsx
+++ b/RutaCritica/MallaCurricular2018.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51793DAC-2A3B-448E-A6FD-AB60673E00C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524781D3-71C9-4312-9B09-9402CE7CC044}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2018" sheetId="1" r:id="rId1"/>
@@ -961,7 +961,7 @@
     <t>3, 5, 10, 13, 15, 16, 17, 18, 19, 20, 21</t>
   </si>
   <si>
-    <t>3, 10, 13 , 17, 20, 26, 28, 29, 53, 36, 37, 38, 39, 40, 42, 43, 44, 45, 47, 48, 49, 50, 51, 52, 54, 55</t>
+    <t xml:space="preserve"> 43, 44, 45, 47, 48, 49, 50, 51, 52, 55</t>
   </si>
 </sst>
 </file>
@@ -1574,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2702,7 +2702,7 @@
       <c r="E56" s="50"/>
       <c r="F56" s="51"/>
     </row>
-    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>99</v>
       </c>
@@ -2732,8 +2732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4014FB4E-F87C-4819-8121-E51678866905}">
   <dimension ref="A2:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RutaCritica/MallaCurricular2018.xlsx
+++ b/RutaCritica/MallaCurricular2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEBF29D-3F40-432F-973D-1C81204F5BCE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524781D3-71C9-4312-9B09-9402CE7CC044}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2018" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="309">
   <si>
     <t>CBM1000</t>
   </si>
@@ -145,9 +145,6 @@
     <t>CIT2201</t>
   </si>
   <si>
-    <t>Electivo Profesional</t>
-  </si>
-  <si>
     <t>CIT3200</t>
   </si>
   <si>
@@ -196,9 +193,6 @@
     <t>31, 35</t>
   </si>
   <si>
-    <t>CFG</t>
-  </si>
-  <si>
     <t>MECÁNICA</t>
   </si>
   <si>
@@ -421,15 +415,6 @@
     <t>52</t>
   </si>
   <si>
-    <t>34, 42</t>
-  </si>
-  <si>
-    <t>24, 35, 36</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>47</t>
   </si>
   <si>
@@ -700,9 +685,6 @@
     <t>TALLER DE TRANSFORMACIÓN DIGITAL</t>
   </si>
   <si>
-    <t>CIT2005, CIT3100</t>
-  </si>
-  <si>
     <t>CIT3339</t>
   </si>
   <si>
@@ -883,19 +865,103 @@
     <t>42</t>
   </si>
   <si>
-    <t>CIT33XX</t>
-  </si>
-  <si>
-    <t>CIT34XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3, 10, 13 , 17, 20, 26, 28, 29, 33, 36, 37, 38, 39, 40, 42, 43, 44, 45, 47, 48, 49, 50, 51, 52, 53 </t>
-  </si>
-  <si>
     <t>INTERFACE HUMANO MÁQUINA</t>
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>24, 34, 35</t>
+  </si>
+  <si>
+    <t>33, 41</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>CIT5001</t>
+  </si>
+  <si>
+    <t>CIT3310</t>
+  </si>
+  <si>
+    <t>CIT3410</t>
+  </si>
+  <si>
+    <t>CIT3411</t>
+  </si>
+  <si>
+    <t>CIT3311</t>
+  </si>
+  <si>
+    <t>CIT3312</t>
+  </si>
+  <si>
+    <t>CIT3412</t>
+  </si>
+  <si>
+    <t>CIT3413</t>
+  </si>
+  <si>
+    <t>CIT3313</t>
+  </si>
+  <si>
+    <t>CIT5002</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL INF 1</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL TEL 1</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL TEL 2</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL INF 2</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL INF 3</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL TEL 3</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL TEL 4</t>
+  </si>
+  <si>
+    <t>ELECTIVO PROFESIONAL INF 4</t>
+  </si>
+  <si>
+    <t>PRÁCTICA PROFESIONAL 1</t>
+  </si>
+  <si>
+    <t>PRÁCTICA PROFESIONAL 2</t>
+  </si>
+  <si>
+    <t>CFG-1</t>
+  </si>
+  <si>
+    <t>CFG-2</t>
+  </si>
+  <si>
+    <t>CFG-3</t>
+  </si>
+  <si>
+    <t>CFG-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54, 26, 28, 29, 53, 33, 36, 37, 38, 39, 40, 41, 42 </t>
+  </si>
+  <si>
+    <t>3, 5, 10, 13, 15, 16, 17, 18, 19, 20, 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 43, 44, 45, 47, 48, 49, 50, 51, 52, 55</t>
   </si>
 </sst>
 </file>
@@ -935,7 +1001,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1025,6 +1091,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -1078,7 +1150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1132,9 +1204,51 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Cálculo" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1162,7 +1276,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1458,41 +1572,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:F24"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="35" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="4" max="4" width="27" style="64" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="35" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>43</v>
+      <c r="D1" s="52" t="s">
+        <v>101</v>
       </c>
       <c r="E1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>103</v>
+      <c r="F1" s="32" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1503,16 +1617,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="21">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12">
+        <v>55</v>
+      </c>
+      <c r="D2" s="53">
         <v>0</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1523,16 +1637,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" s="21">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12">
+        <v>56</v>
+      </c>
+      <c r="D3" s="53">
         <v>0</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1543,16 +1657,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="21">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12">
+        <v>62</v>
+      </c>
+      <c r="D4" s="53">
         <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1563,16 +1677,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="12">
+        <v>65</v>
+      </c>
+      <c r="D5" s="53">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
         <v>9</v>
       </c>
-      <c r="E5" s="21">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12">
-        <v>0</v>
+      <c r="F5" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1583,16 +1697,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="12">
+        <v>84</v>
+      </c>
+      <c r="D6" s="53">
+        <v>0</v>
+      </c>
+      <c r="E6" s="12">
         <v>38</v>
       </c>
-      <c r="E6" s="21">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0</v>
+      <c r="F6" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1603,16 +1717,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="22">
+        <v>57</v>
+      </c>
+      <c r="D7" s="54">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="22">
         <v>2</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1623,15 +1737,15 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="22">
+        <v>58</v>
+      </c>
+      <c r="D8" s="54">
         <v>2</v>
       </c>
-      <c r="F8" s="13">
+      <c r="E8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="22">
         <v>2</v>
       </c>
     </row>
@@ -1643,15 +1757,15 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="22">
+        <v>52</v>
+      </c>
+      <c r="D9" s="54">
         <v>2</v>
       </c>
-      <c r="F9" s="13">
+      <c r="E9" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="22">
         <v>2</v>
       </c>
     </row>
@@ -1663,16 +1777,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="22">
+        <v>66</v>
+      </c>
+      <c r="D10" s="54">
+        <v>4</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="22">
         <v>2</v>
-      </c>
-      <c r="F10" s="13">
-        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1680,19 +1794,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>302</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" s="22">
+        <v>302</v>
+      </c>
+      <c r="D11" s="54">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="22">
         <v>2</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1703,16 +1817,16 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="14">
+        <v>59</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="14">
         <v>18</v>
       </c>
-      <c r="E12" s="23">
+      <c r="F12" s="23">
         <v>3</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1723,16 +1837,16 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="23">
+        <v>60</v>
+      </c>
+      <c r="D13" s="55">
+        <v>7</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="23">
         <v>3</v>
-      </c>
-      <c r="F13" s="14">
-        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1743,16 +1857,16 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" s="23">
+        <v>53</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="23">
         <v>3</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1763,16 +1877,16 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="14">
+        <v>67</v>
+      </c>
+      <c r="D15" s="55">
+        <v>9</v>
+      </c>
+      <c r="E15" s="14">
         <v>19</v>
       </c>
-      <c r="E15" s="23">
+      <c r="F15" s="23">
         <v>3</v>
-      </c>
-      <c r="F15" s="14">
-        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1783,16 +1897,16 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="23">
+        <v>73</v>
+      </c>
+      <c r="D16" s="55">
+        <v>9</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="23">
         <v>3</v>
-      </c>
-      <c r="F16" s="14">
-        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1803,16 +1917,16 @@
         <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="24">
+        <v>86</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="24">
         <v>4</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1823,16 +1937,16 @@
         <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" s="24">
+        <v>61</v>
+      </c>
+      <c r="D18" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="24">
         <v>4</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1843,16 +1957,16 @@
         <v>16</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="15">
+        <v>54</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="15">
         <v>23</v>
       </c>
-      <c r="E19" s="24">
+      <c r="F19" s="24">
         <v>4</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1863,16 +1977,16 @@
         <v>17</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="24">
+        <v>68</v>
+      </c>
+      <c r="D20" s="56">
+        <v>14</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="24">
         <v>4</v>
-      </c>
-      <c r="F20" s="15">
-        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1880,19 +1994,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>53</v>
+        <v>303</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="24">
+        <v>303</v>
+      </c>
+      <c r="D21" s="56">
+        <v>0</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="24">
         <v>4</v>
-      </c>
-      <c r="F21" s="15">
-        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1900,19 +2014,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D22" s="15">
+        <v>267</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>277</v>
+      </c>
+      <c r="E22" s="15">
         <v>27</v>
       </c>
-      <c r="E22" s="24">
+      <c r="F22" s="24">
         <v>4</v>
-      </c>
-      <c r="F22" s="15">
-        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1923,16 +2037,16 @@
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="16">
+        <v>64</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" s="16">
         <v>29</v>
       </c>
-      <c r="E23" s="25">
+      <c r="F23" s="25">
         <v>5</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1943,16 +2057,16 @@
         <v>19</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="25">
+        <v>87</v>
+      </c>
+      <c r="D24" s="58">
+        <v>18</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="25">
         <v>5</v>
-      </c>
-      <c r="F24" s="33">
-        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1963,16 +2077,16 @@
         <v>20</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" s="25">
+        <v>79</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="25">
         <v>5</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1983,16 +2097,16 @@
         <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="25">
+        <v>69</v>
+      </c>
+      <c r="D26" s="57">
+        <v>19</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="25">
         <v>5</v>
-      </c>
-      <c r="F26" s="16">
-        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2000,19 +2114,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>53</v>
+        <v>304</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27" s="25">
+        <v>304</v>
+      </c>
+      <c r="D27" s="57">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" s="25">
         <v>5</v>
-      </c>
-      <c r="F27" s="16">
-        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2020,19 +2134,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="E28" s="25">
+        <v>268</v>
+      </c>
+      <c r="D28" s="57">
+        <v>21</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="F28" s="25">
         <v>5</v>
-      </c>
-      <c r="F28" s="16">
-        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2043,16 +2157,16 @@
         <v>22</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" s="26">
+        <v>88</v>
+      </c>
+      <c r="D29" s="59">
+        <v>12</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="26">
         <v>6</v>
-      </c>
-      <c r="F29" s="17">
-        <v>12</v>
       </c>
       <c r="J29" s="31"/>
     </row>
@@ -2064,16 +2178,16 @@
         <v>23</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="26">
+        <v>81</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30" s="26">
         <v>6</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2084,16 +2198,16 @@
         <v>24</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E31" s="26">
+        <v>74</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="26">
         <v>6</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2104,16 +2218,16 @@
         <v>25</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" s="26">
+        <v>70</v>
+      </c>
+      <c r="D32" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="26">
         <v>6</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2124,456 +2238,488 @@
         <v>26</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E33" s="26">
+        <v>76</v>
+      </c>
+      <c r="D33" s="59">
+        <v>23</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="26">
         <v>6</v>
       </c>
-      <c r="F33" s="17">
-        <v>23</v>
-      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>33</v>
+      <c r="A34" s="1">
+        <v>53</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D34" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E34" s="26">
+      <c r="F34" s="26">
         <v>6</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="27">
+        <v>63</v>
+      </c>
+      <c r="D35" s="60">
+        <v>2</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="27">
         <v>7</v>
-      </c>
-      <c r="F35" s="18">
-        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E36" s="27">
+        <v>72</v>
+      </c>
+      <c r="D36" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="27">
         <v>7</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="E37" s="27">
+        <v>75</v>
+      </c>
+      <c r="D37" s="60">
+        <v>30</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="F37" s="27">
         <v>7</v>
-      </c>
-      <c r="F37" s="18">
-        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E38" s="27">
+        <v>85</v>
+      </c>
+      <c r="D38" s="60">
+        <v>0</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F38" s="27">
         <v>7</v>
-      </c>
-      <c r="F38" s="18">
-        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E39" s="27">
+        <v>77</v>
+      </c>
+      <c r="D39" s="60">
+        <v>32</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="27">
         <v>7</v>
-      </c>
-      <c r="F39" s="18">
-        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="28">
+        <v>274</v>
+      </c>
+      <c r="D40" s="61">
+        <v>5</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="28">
         <v>8</v>
-      </c>
-      <c r="F40" s="19">
-        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E41" s="28">
+        <v>71</v>
+      </c>
+      <c r="D41" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F41" s="28">
         <v>8</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E42" s="28">
+        <v>78</v>
+      </c>
+      <c r="D42" s="61">
+        <v>31</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" s="28">
         <v>8</v>
-      </c>
-      <c r="F42" s="19">
-        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E43" s="28">
+        <v>80</v>
+      </c>
+      <c r="D43" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="28">
         <v>8</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>53</v>
+        <v>305</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" s="28">
+        <v>305</v>
+      </c>
+      <c r="D44" s="61">
+        <v>0</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44" s="28">
         <v>8</v>
-      </c>
-      <c r="F44" s="19">
-        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45" s="29">
+        <v>292</v>
+      </c>
+      <c r="D45" s="62">
+        <v>0</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F45" s="29">
         <v>9</v>
-      </c>
-      <c r="F45" s="20">
-        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E46" s="29">
+        <v>293</v>
+      </c>
+      <c r="D46" s="62">
+        <v>0</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" s="29">
         <v>9</v>
-      </c>
-      <c r="F46" s="20">
-        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E47" s="29">
+        <v>294</v>
+      </c>
+      <c r="D47" s="62">
+        <v>0</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" s="29">
         <v>9</v>
-      </c>
-      <c r="F47" s="20">
-        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E48" s="29">
+        <v>82</v>
+      </c>
+      <c r="D48" s="62" t="s">
+        <v>280</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F48" s="29">
         <v>9</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E49" s="29">
+        <v>295</v>
+      </c>
+      <c r="D49" s="62">
+        <v>0</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49" s="29">
         <v>9</v>
-      </c>
-      <c r="F49" s="20">
-        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="E50" s="30">
+        <v>296</v>
+      </c>
+      <c r="D50" s="36">
+        <v>0</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" s="30">
         <v>10</v>
-      </c>
-      <c r="F50" s="34">
-        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="E51" s="30">
+        <v>297</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F51" s="30">
         <v>10</v>
-      </c>
-      <c r="F51" s="34" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="E52" s="30">
+        <v>298</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F52" s="30">
         <v>10</v>
-      </c>
-      <c r="F52" s="34" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D53" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="E53" s="30">
+        <v>83</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F53" s="30">
         <v>10</v>
-      </c>
-      <c r="F53" s="34" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="E54" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="49">
+        <v>54</v>
+      </c>
+      <c r="B55" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="C54" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="E54" s="30">
-        <v>10</v>
-      </c>
-      <c r="F54" s="34" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
-        <v>54</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" s="34">
+      <c r="C55" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="D55" s="63" t="s">
+        <v>307</v>
+      </c>
+      <c r="E55" s="50"/>
+      <c r="F55" s="51"/>
+    </row>
+    <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="49">
+        <v>55</v>
+      </c>
+      <c r="B56" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="C56" s="49" t="s">
+        <v>301</v>
+      </c>
+      <c r="D56" s="63" t="s">
+        <v>306</v>
+      </c>
+      <c r="E56" s="50"/>
+      <c r="F56" s="51"/>
+    </row>
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="10">
+        <v>99</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="E57" s="34">
         <v>0</v>
       </c>
-      <c r="E55" s="30">
+      <c r="F57" s="30">
         <v>11</v>
-      </c>
-      <c r="F55" s="36" t="s">
-        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -2586,11 +2732,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4014FB4E-F87C-4819-8121-E51678866905}">
   <dimension ref="A2:F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="53.5703125" customWidth="1"/>
@@ -2601,22 +2747,22 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="37" t="s">
         <v>139</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2624,10 +2770,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D3" s="39">
         <v>54</v>
@@ -2642,10 +2788,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D4" s="39">
         <v>54</v>
@@ -2660,10 +2806,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D5" s="39">
         <v>54</v>
@@ -2672,7 +2818,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2680,10 +2826,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D6" s="39">
         <v>54</v>
@@ -2698,10 +2844,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D7" s="39">
         <v>54</v>
@@ -2716,10 +2862,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D8" s="39">
         <v>54</v>
@@ -2734,16 +2880,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D9" s="39">
         <v>54</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F9" s="40"/>
     </row>
@@ -2752,19 +2898,19 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D10" s="39">
         <v>54</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2772,16 +2918,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D11" s="39">
         <v>54</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F11" s="40"/>
     </row>
@@ -2790,19 +2936,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D12" s="39">
         <v>54</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2810,16 +2956,16 @@
         <v>1</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D13" s="39">
         <v>54</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F13" s="40"/>
     </row>
@@ -2828,16 +2974,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D14" s="39">
         <v>54</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F14" s="40"/>
     </row>
@@ -2846,10 +2992,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D15" s="39">
         <v>54</v>
@@ -2864,10 +3010,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D16" s="39">
         <v>54</v>
@@ -2882,10 +3028,10 @@
         <v>1</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D17" s="39">
         <v>54</v>
@@ -2900,10 +3046,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D18" s="39">
         <v>54</v>
@@ -2918,16 +3064,16 @@
         <v>1</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D19" s="46">
         <v>54</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F19" s="47"/>
     </row>
@@ -2936,16 +3082,16 @@
         <v>1</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D20" s="39">
         <v>54</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F20" s="40"/>
     </row>
@@ -2954,16 +3100,16 @@
         <v>1</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D21" s="39">
         <v>54</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F21" s="40"/>
     </row>
@@ -2972,10 +3118,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D22" s="39">
         <v>54</v>
@@ -2990,19 +3136,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D23" s="39">
         <v>54</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3010,16 +3156,16 @@
         <v>1</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D24" s="39">
         <v>54</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F24" s="40"/>
     </row>
@@ -3028,16 +3174,16 @@
         <v>1</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D25" s="39">
         <v>54</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F25" s="40"/>
     </row>
@@ -3046,10 +3192,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D26" s="39">
         <v>54</v>
@@ -3064,16 +3210,16 @@
         <v>1</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D27" s="39">
         <v>54</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F27" s="40"/>
     </row>
@@ -3082,16 +3228,16 @@
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D28" s="39">
         <v>54</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F28" s="40"/>
     </row>
@@ -3100,10 +3246,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D29" s="39">
         <v>54</v>
@@ -3118,10 +3264,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D30" s="39">
         <v>54</v>
@@ -3136,16 +3282,16 @@
         <v>1</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D31" s="39">
         <v>54</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F31" s="40"/>
     </row>
@@ -3154,10 +3300,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D32" s="39">
         <v>54</v>
@@ -3166,7 +3312,7 @@
         <v>35</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3174,16 +3320,16 @@
         <v>1</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D33" s="39">
         <v>54</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>221</v>
+        <v>28</v>
       </c>
       <c r="F33" s="40"/>
     </row>
@@ -3192,10 +3338,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D34" s="39">
         <v>54</v>
@@ -3210,10 +3356,10 @@
         <v>1</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D35" s="39">
         <v>54</v>
@@ -3228,16 +3374,16 @@
         <v>1</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D36" s="39">
         <v>54</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F36" s="40"/>
     </row>
@@ -3246,16 +3392,16 @@
         <v>2</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D37" s="39">
         <v>54</v>
       </c>
       <c r="E37" s="38" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F37" s="40"/>
     </row>
@@ -3264,16 +3410,16 @@
         <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D38" s="39">
         <v>54</v>
       </c>
       <c r="E38" s="38" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F38" s="40"/>
     </row>
@@ -3282,10 +3428,10 @@
         <v>2</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D39" s="39">
         <v>54</v>
@@ -3300,16 +3446,16 @@
         <v>2</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D40" s="39">
         <v>54</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F40" s="40"/>
     </row>
@@ -3318,10 +3464,10 @@
         <v>2</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D41" s="39">
         <v>54</v>
@@ -3336,10 +3482,10 @@
         <v>2</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D42" s="39">
         <v>54</v>
@@ -3354,10 +3500,10 @@
         <v>2</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D43" s="39">
         <v>54</v>
@@ -3372,10 +3518,10 @@
         <v>2</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D44" s="39">
         <v>54</v>
@@ -3390,16 +3536,16 @@
         <v>2</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D45" s="39">
         <v>54</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F45" s="40"/>
     </row>
@@ -3408,16 +3554,16 @@
         <v>2</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D46" s="39">
         <v>54</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F46" s="40"/>
     </row>
@@ -3426,10 +3572,10 @@
         <v>2</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D47" s="39">
         <v>54</v>
@@ -3444,16 +3590,16 @@
         <v>2</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D48" s="39">
         <v>54</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F48" s="40"/>
     </row>
@@ -3462,16 +3608,16 @@
         <v>2</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D49" s="39">
         <v>54</v>
       </c>
       <c r="E49" s="38" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F49" s="40"/>
     </row>
@@ -3480,10 +3626,10 @@
         <v>2</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D50" s="39">
         <v>54</v>
@@ -3498,10 +3644,10 @@
         <v>2</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D51" s="39">
         <v>54</v>
@@ -3516,10 +3662,10 @@
         <v>2</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D52" s="39">
         <v>54</v>
@@ -3534,10 +3680,10 @@
         <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D53" s="39">
         <v>54</v>
@@ -3546,7 +3692,7 @@
         <v>29</v>
       </c>
       <c r="F53" s="40" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3554,16 +3700,16 @@
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D54" s="39">
         <v>54</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F54" s="40"/>
     </row>
@@ -3577,11 +3723,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D408C3EA-25FB-45D4-B6B7-42F43E06065D}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.140625" customWidth="1"/>
     <col min="2" max="2" width="51.85546875" customWidth="1"/>
@@ -3590,10 +3736,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3601,7 +3747,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3609,7 +3755,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3617,7 +3763,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3625,15 +3771,15 @@
         <v>17</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3641,7 +3787,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3649,7 +3795,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3657,15 +3803,15 @@
         <v>21</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3673,7 +3819,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3681,7 +3827,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3689,7 +3835,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3697,7 +3843,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3705,7 +3851,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3713,7 +3859,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3721,7 +3867,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3729,7 +3875,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3737,7 +3883,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3745,7 +3891,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3753,7 +3899,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3761,23 +3907,23 @@
         <v>35</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/RutaCritica/MallaCurricular2018.xlsx
+++ b/RutaCritica/MallaCurricular2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas Flores\Desktop\practica II 2021\generador_de_horarios_Practica\RutaCritica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alvar\Downloads\TdR\generador_de_horarios_Practica\RutaCritica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524781D3-71C9-4312-9B09-9402CE7CC044}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D039E1-75BD-4A5C-867F-58E6F47846F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4E8A2F0A-3134-4A00-A9B2-0591E032DEE3}"/>
   </bookViews>
   <sheets>
     <sheet name="MallaCurricular2018" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="313">
   <si>
     <t>CBM1000</t>
   </si>
@@ -962,6 +962,18 @@
   </si>
   <si>
     <t xml:space="preserve"> 43, 44, 45, 47, 48, 49, 50, 51, 52, 55</t>
+  </si>
+  <si>
+    <t>CFG1</t>
+  </si>
+  <si>
+    <t>CFG3</t>
+  </si>
+  <si>
+    <t>CFG2</t>
+  </si>
+  <si>
+    <t>CFG4</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1260,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Cálculo" xfId="1" builtinId="22"/>
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1276,7 +1288,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1574,11 +1586,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC6E64A-71CB-4B98-A7E7-F4D52075C1FC}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -1794,7 +1806,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>302</v>
@@ -1994,7 +2006,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>303</v>
@@ -2114,7 +2126,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>304</v>
@@ -2455,7 +2467,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>305</v>
@@ -2736,7 +2748,7 @@
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="53.5703125" customWidth="1"/>
@@ -3727,7 +3739,7 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.140625" customWidth="1"/>
     <col min="2" max="2" width="51.85546875" customWidth="1"/>
